--- a/RESSOURCES/EMBALLAGES PAR PRODUITS TTES MARQUES.xlsx
+++ b/RESSOURCES/EMBALLAGES PAR PRODUITS TTES MARQUES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CLAIRE\ACHATS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\econte\Desktop\Edouard\Divisio\RESSOURCES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C437B710-1197-4FBC-93A7-9A3EC28D9828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B0E9F0-0828-4BE5-9BE7-49F51191D27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{CE562C63-56AB-4767-B83C-50F8A455B02C}"/>
   </bookViews>
@@ -10710,16 +10710,16 @@
   </sheetData>
   <autoFilter ref="J3:J18" xr:uid="{8FF0F9D2-17B0-4D09-9DF1-2E903DE4C1A8}"/>
   <mergeCells count="10">
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="U2:X2"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="U2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -13514,11 +13514,11 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O4" sqref="O4"/>
       <selection pane="topRight" activeCell="O4" sqref="O4"/>
       <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RESSOURCES/EMBALLAGES PAR PRODUITS TTES MARQUES.xlsx
+++ b/RESSOURCES/EMBALLAGES PAR PRODUITS TTES MARQUES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\econte\Desktop\Edouard\Divisio\RESSOURCES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B0E9F0-0828-4BE5-9BE7-49F51191D27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367F2248-C3D9-4C2A-ACC0-5B57B79E029C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{CE562C63-56AB-4767-B83C-50F8A455B02C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE562C63-56AB-4767-B83C-50F8A455B02C}"/>
   </bookViews>
   <sheets>
     <sheet name="Biochamps MSP" sheetId="1" r:id="rId1"/>
@@ -4041,11 +4041,11 @@
   </sheetPr>
   <dimension ref="A1:AO110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13513,12 +13513,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96165BFD-25F4-48D7-9F9E-0D661328E082}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O4" sqref="O4"/>
       <selection pane="topRight" activeCell="O4" sqref="O4"/>
       <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14624,7 +14624,7 @@
       <selection activeCell="O4" sqref="O4"/>
       <selection pane="topRight" activeCell="O4" sqref="O4"/>
       <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RESSOURCES/EMBALLAGES PAR PRODUITS TTES MARQUES.xlsx
+++ b/RESSOURCES/EMBALLAGES PAR PRODUITS TTES MARQUES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\econte\Desktop\Edouard\Divisio\RESSOURCES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367F2248-C3D9-4C2A-ACC0-5B57B79E029C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A6C752-33D0-4788-A921-D1B1531E8A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE562C63-56AB-4767-B83C-50F8A455B02C}"/>
   </bookViews>
@@ -4045,7 +4045,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10710,16 +10710,16 @@
   </sheetData>
   <autoFilter ref="J3:J18" xr:uid="{8FF0F9D2-17B0-4D09-9DF1-2E903DE4C1A8}"/>
   <mergeCells count="10">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:T2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AO2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="U2:X2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -10734,7 +10734,7 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O4" sqref="O4"/>
       <selection pane="topRight" activeCell="O4" sqref="O4"/>
       <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>

--- a/RESSOURCES/EMBALLAGES PAR PRODUITS TTES MARQUES.xlsx
+++ b/RESSOURCES/EMBALLAGES PAR PRODUITS TTES MARQUES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\econte\Desktop\Edouard\Divisio\RESSOURCES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A6C752-33D0-4788-A921-D1B1531E8A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A83529-0670-4CC1-AE33-BE22D4D9E376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE562C63-56AB-4767-B83C-50F8A455B02C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{CE562C63-56AB-4767-B83C-50F8A455B02C}"/>
   </bookViews>
   <sheets>
     <sheet name="Biochamps MSP" sheetId="1" r:id="rId1"/>
@@ -4041,11 +4041,11 @@
   </sheetPr>
   <dimension ref="A1:AO110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10710,16 +10710,16 @@
   </sheetData>
   <autoFilter ref="J3:J18" xr:uid="{8FF0F9D2-17B0-4D09-9DF1-2E903DE4C1A8}"/>
   <mergeCells count="10">
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="U2:X2"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="U2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -13513,12 +13513,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96165BFD-25F4-48D7-9F9E-0D661328E082}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O4" sqref="O4"/>
       <selection pane="topRight" activeCell="O4" sqref="O4"/>
       <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RESSOURCES/EMBALLAGES PAR PRODUITS TTES MARQUES.xlsx
+++ b/RESSOURCES/EMBALLAGES PAR PRODUITS TTES MARQUES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\econte\Desktop\Edouard\Divisio\RESSOURCES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A83529-0670-4CC1-AE33-BE22D4D9E376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A9AD78-BD6F-4C63-9913-32211B767CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{CE562C63-56AB-4767-B83C-50F8A455B02C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{CE562C63-56AB-4767-B83C-50F8A455B02C}"/>
   </bookViews>
   <sheets>
     <sheet name="Biochamps MSP" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Les Près D''Ariège'!$J$3:$J$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Morice!$J$3:$J$36</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="605">
   <si>
     <t>4 x 125 g</t>
   </si>
@@ -1856,6 +1856,12 @@
   </si>
   <si>
     <t>CODE COUVERCLE</t>
+  </si>
+  <si>
+    <t>CONDI_A_CHAUD</t>
+  </si>
+  <si>
+    <t>COND</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2065,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2537,12 +2543,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="432">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3541,9 +3644,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3551,9 +3651,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3652,6 +3749,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3685,7 +3846,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3714,6 +3875,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4042,10 +4206,10 @@
   <dimension ref="A1:AO110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
+      <selection pane="bottomRight" activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4109,61 +4273,63 @@
       <c r="AO1" s="70"/>
     </row>
     <row r="2" spans="1:41" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="410" t="s">
+      <c r="A2" s="430" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="411"/>
-      <c r="C2" s="411"/>
-      <c r="D2" s="411"/>
-      <c r="E2" s="411"/>
-      <c r="F2" s="412" t="s">
+      <c r="B2" s="431"/>
+      <c r="C2" s="431"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="432" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="412"/>
-      <c r="H2" s="412"/>
-      <c r="I2" s="412"/>
-      <c r="J2" s="413" t="s">
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="432"/>
+      <c r="J2" s="433" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="413"/>
-      <c r="N2" s="417" t="s">
+      <c r="K2" s="433"/>
+      <c r="L2" s="433"/>
+      <c r="M2" s="433"/>
+      <c r="N2" s="437" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="417"/>
-      <c r="P2" s="417"/>
-      <c r="Q2" s="417"/>
-      <c r="R2" s="414" t="s">
+      <c r="O2" s="437"/>
+      <c r="P2" s="437"/>
+      <c r="Q2" s="437"/>
+      <c r="R2" s="434" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="414"/>
-      <c r="T2" s="414"/>
-      <c r="U2" s="415" t="s">
+      <c r="S2" s="434"/>
+      <c r="T2" s="434"/>
+      <c r="U2" s="435" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="415"/>
-      <c r="W2" s="415"/>
-      <c r="X2" s="416"/>
-      <c r="Y2" s="418" t="s">
+      <c r="V2" s="435"/>
+      <c r="W2" s="435"/>
+      <c r="X2" s="436"/>
+      <c r="Y2" s="438" t="s">
         <v>598</v>
       </c>
-      <c r="Z2" s="419"/>
-      <c r="AA2" s="420"/>
-      <c r="AB2" s="366"/>
-      <c r="AC2" s="409"/>
-      <c r="AD2" s="409"/>
-      <c r="AE2" s="409"/>
-      <c r="AF2" s="409"/>
-      <c r="AG2" s="409"/>
-      <c r="AH2" s="409"/>
-      <c r="AI2" s="409"/>
-      <c r="AJ2" s="409"/>
-      <c r="AK2" s="409"/>
-      <c r="AL2" s="409"/>
-      <c r="AM2" s="409"/>
-      <c r="AN2" s="409"/>
-      <c r="AO2" s="409"/>
+      <c r="Z2" s="439"/>
+      <c r="AA2" s="440"/>
+      <c r="AB2" s="414" t="s">
+        <v>604</v>
+      </c>
+      <c r="AC2" s="429"/>
+      <c r="AD2" s="429"/>
+      <c r="AE2" s="429"/>
+      <c r="AF2" s="429"/>
+      <c r="AG2" s="429"/>
+      <c r="AH2" s="429"/>
+      <c r="AI2" s="429"/>
+      <c r="AJ2" s="429"/>
+      <c r="AK2" s="429"/>
+      <c r="AL2" s="429"/>
+      <c r="AM2" s="429"/>
+      <c r="AN2" s="429"/>
+      <c r="AO2" s="429"/>
     </row>
     <row r="3" spans="1:41" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="223" t="s">
@@ -4238,16 +4404,18 @@
       <c r="X3" s="320" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="370" t="s">
+      <c r="Y3" s="369" t="s">
         <v>599</v>
       </c>
-      <c r="Z3" s="371" t="s">
+      <c r="Z3" s="370" t="s">
         <v>600</v>
       </c>
-      <c r="AA3" s="372" t="s">
+      <c r="AA3" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="AB3" s="253"/>
+      <c r="AB3" s="415" t="s">
+        <v>603</v>
+      </c>
       <c r="AC3" s="253"/>
       <c r="AD3" s="253"/>
       <c r="AE3" s="253"/>
@@ -4318,20 +4486,22 @@
       <c r="W4" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="X4" s="367" t="s">
+      <c r="X4" s="366" t="s">
         <v>127</v>
       </c>
-      <c r="Y4" s="373">
+      <c r="Y4" s="371">
         <v>11</v>
       </c>
-      <c r="Z4" s="374">
+      <c r="Z4" s="372">
         <v>6</v>
       </c>
-      <c r="AA4" s="375">
+      <c r="AA4" s="373">
         <f>(Y4*Z4)*E4</f>
         <v>396</v>
       </c>
-      <c r="AB4" s="251"/>
+      <c r="AB4" s="417">
+        <v>0</v>
+      </c>
       <c r="AC4" s="251"/>
       <c r="AD4" s="251"/>
       <c r="AE4" s="252"/>
@@ -4400,20 +4570,22 @@
       <c r="W5" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X5" s="368" t="s">
+      <c r="X5" s="367" t="s">
         <v>130</v>
       </c>
-      <c r="Y5" s="376">
+      <c r="Y5" s="374">
         <v>14</v>
       </c>
-      <c r="Z5" s="377">
+      <c r="Z5" s="375">
         <v>10</v>
       </c>
-      <c r="AA5" s="375">
+      <c r="AA5" s="373">
         <f t="shared" ref="AA5:AA27" si="0">(Y5*Z5)*E5</f>
         <v>840</v>
       </c>
-      <c r="AB5" s="251"/>
+      <c r="AB5" s="412">
+        <v>0</v>
+      </c>
       <c r="AC5" s="251"/>
       <c r="AD5" s="252"/>
       <c r="AE5" s="252"/>
@@ -4484,20 +4656,22 @@
       <c r="W6" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X6" s="368" t="s">
+      <c r="X6" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y6" s="376">
+      <c r="Y6" s="374">
         <v>11</v>
       </c>
-      <c r="Z6" s="377">
+      <c r="Z6" s="375">
         <v>9</v>
       </c>
-      <c r="AA6" s="375">
+      <c r="AA6" s="373">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-      <c r="AB6" s="251"/>
+      <c r="AB6" s="412">
+        <v>0</v>
+      </c>
       <c r="AC6" s="251"/>
       <c r="AD6" s="251"/>
       <c r="AE6" s="251"/>
@@ -4576,20 +4750,22 @@
       <c r="W7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X7" s="368" t="s">
+      <c r="X7" s="367" t="s">
         <v>130</v>
       </c>
-      <c r="Y7" s="376">
+      <c r="Y7" s="374">
         <v>14</v>
       </c>
-      <c r="Z7" s="377">
+      <c r="Z7" s="375">
         <v>10</v>
       </c>
-      <c r="AA7" s="375">
+      <c r="AA7" s="373">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="AB7" s="251"/>
+      <c r="AB7" s="412">
+        <v>0</v>
+      </c>
       <c r="AC7" s="251"/>
       <c r="AD7" s="252"/>
       <c r="AE7" s="252"/>
@@ -4666,20 +4842,22 @@
       <c r="W8" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X8" s="368" t="s">
+      <c r="X8" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y8" s="376">
+      <c r="Y8" s="374">
         <v>11</v>
       </c>
-      <c r="Z8" s="377">
+      <c r="Z8" s="375">
         <v>11</v>
       </c>
-      <c r="AA8" s="375">
+      <c r="AA8" s="373">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="AB8" s="251"/>
+      <c r="AB8" s="412">
+        <v>0</v>
+      </c>
       <c r="AC8" s="251"/>
       <c r="AD8" s="252"/>
       <c r="AE8" s="252"/>
@@ -4756,20 +4934,22 @@
       <c r="W9" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X9" s="368" t="s">
+      <c r="X9" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y9" s="376">
+      <c r="Y9" s="374">
         <v>18</v>
       </c>
-      <c r="Z9" s="377">
+      <c r="Z9" s="375">
         <v>10</v>
       </c>
-      <c r="AA9" s="375">
+      <c r="AA9" s="373">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="AB9" s="251"/>
+      <c r="AB9" s="412">
+        <v>0</v>
+      </c>
       <c r="AC9" s="251"/>
       <c r="AD9" s="252"/>
       <c r="AE9" s="252"/>
@@ -4846,20 +5026,22 @@
       <c r="W10" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X10" s="368" t="s">
+      <c r="X10" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y10" s="376">
+      <c r="Y10" s="374">
         <v>18</v>
       </c>
-      <c r="Z10" s="377">
+      <c r="Z10" s="375">
         <v>10</v>
       </c>
-      <c r="AA10" s="375">
+      <c r="AA10" s="373">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="AB10" s="251"/>
+      <c r="AB10" s="412">
+        <v>0</v>
+      </c>
       <c r="AC10" s="251"/>
       <c r="AD10" s="252"/>
       <c r="AE10" s="252"/>
@@ -4936,20 +5118,22 @@
       <c r="W11" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X11" s="368" t="s">
+      <c r="X11" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y11" s="376">
+      <c r="Y11" s="374">
         <v>18</v>
       </c>
-      <c r="Z11" s="377">
+      <c r="Z11" s="375">
         <v>10</v>
       </c>
-      <c r="AA11" s="375">
+      <c r="AA11" s="373">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="AB11" s="251"/>
+      <c r="AB11" s="412">
+        <v>0</v>
+      </c>
       <c r="AC11" s="251"/>
       <c r="AD11" s="252"/>
       <c r="AE11" s="252"/>
@@ -5026,20 +5210,22 @@
       <c r="W12" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X12" s="368" t="s">
+      <c r="X12" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y12" s="376">
+      <c r="Y12" s="374">
         <v>18</v>
       </c>
-      <c r="Z12" s="377">
+      <c r="Z12" s="375">
         <v>10</v>
       </c>
-      <c r="AA12" s="375">
+      <c r="AA12" s="373">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="AB12" s="251"/>
+      <c r="AB12" s="412">
+        <v>0</v>
+      </c>
       <c r="AC12" s="251"/>
       <c r="AD12" s="252"/>
       <c r="AE12" s="252"/>
@@ -5116,20 +5302,22 @@
       <c r="W13" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X13" s="368" t="s">
+      <c r="X13" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y13" s="376">
+      <c r="Y13" s="374">
         <v>18</v>
       </c>
-      <c r="Z13" s="377">
+      <c r="Z13" s="375">
         <v>10</v>
       </c>
-      <c r="AA13" s="375">
+      <c r="AA13" s="373">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="AB13" s="251"/>
+      <c r="AB13" s="412">
+        <v>0</v>
+      </c>
       <c r="AC13" s="251"/>
       <c r="AD13" s="252"/>
       <c r="AE13" s="252"/>
@@ -5206,20 +5394,22 @@
       <c r="W14" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X14" s="368" t="s">
+      <c r="X14" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y14" s="376">
+      <c r="Y14" s="374">
         <v>11</v>
       </c>
-      <c r="Z14" s="377">
+      <c r="Z14" s="375">
         <v>11</v>
       </c>
-      <c r="AA14" s="375">
+      <c r="AA14" s="373">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="AB14" s="251"/>
+      <c r="AB14" s="412">
+        <v>0</v>
+      </c>
       <c r="AC14" s="251"/>
       <c r="AD14" s="252"/>
       <c r="AE14" s="252"/>
@@ -5290,20 +5480,22 @@
       <c r="W15" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X15" s="368" t="s">
+      <c r="X15" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y15" s="376">
+      <c r="Y15" s="374">
         <v>11</v>
       </c>
-      <c r="Z15" s="377">
+      <c r="Z15" s="375">
         <v>9</v>
       </c>
-      <c r="AA15" s="375">
+      <c r="AA15" s="373">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-      <c r="AB15" s="251"/>
+      <c r="AB15" s="412">
+        <v>0</v>
+      </c>
       <c r="AC15" s="251"/>
       <c r="AD15" s="251"/>
       <c r="AE15" s="251"/>
@@ -5374,20 +5566,22 @@
       <c r="W16" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X16" s="368" t="s">
+      <c r="X16" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y16" s="376">
+      <c r="Y16" s="374">
         <v>11</v>
       </c>
-      <c r="Z16" s="377">
+      <c r="Z16" s="375">
         <v>9</v>
       </c>
-      <c r="AA16" s="375">
+      <c r="AA16" s="373">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-      <c r="AB16" s="251"/>
+      <c r="AB16" s="412">
+        <v>0</v>
+      </c>
       <c r="AC16" s="251"/>
       <c r="AD16" s="251"/>
       <c r="AE16" s="251"/>
@@ -5462,20 +5656,22 @@
       <c r="W17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X17" s="368" t="s">
+      <c r="X17" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y17" s="376">
+      <c r="Y17" s="374">
         <v>11</v>
       </c>
-      <c r="Z17" s="377">
+      <c r="Z17" s="375">
         <v>11</v>
       </c>
-      <c r="AA17" s="375">
+      <c r="AA17" s="373">
         <f t="shared" si="0"/>
         <v>484</v>
       </c>
-      <c r="AB17" s="251"/>
+      <c r="AB17" s="412">
+        <v>0</v>
+      </c>
       <c r="AC17" s="251"/>
       <c r="AD17" s="252"/>
       <c r="AE17" s="252"/>
@@ -5546,20 +5742,22 @@
       <c r="W18" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X18" s="368" t="s">
+      <c r="X18" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y18" s="376">
+      <c r="Y18" s="374">
         <v>11</v>
       </c>
-      <c r="Z18" s="377">
+      <c r="Z18" s="375">
         <v>9</v>
       </c>
-      <c r="AA18" s="375">
+      <c r="AA18" s="373">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-      <c r="AB18" s="251"/>
+      <c r="AB18" s="412">
+        <v>0</v>
+      </c>
       <c r="AC18" s="251"/>
       <c r="AD18" s="251"/>
       <c r="AE18" s="251"/>
@@ -5630,20 +5828,22 @@
       <c r="W19" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X19" s="368" t="s">
+      <c r="X19" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y19" s="376">
+      <c r="Y19" s="374">
         <v>11</v>
       </c>
-      <c r="Z19" s="377">
+      <c r="Z19" s="375">
         <v>9</v>
       </c>
-      <c r="AA19" s="375">
+      <c r="AA19" s="373">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-      <c r="AB19" s="251"/>
+      <c r="AB19" s="412">
+        <v>0</v>
+      </c>
       <c r="AC19" s="251"/>
       <c r="AD19" s="251"/>
       <c r="AE19" s="251"/>
@@ -5722,20 +5922,22 @@
       <c r="W20" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X20" s="368" t="s">
+      <c r="X20" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y20" s="376">
+      <c r="Y20" s="374">
         <v>11</v>
       </c>
-      <c r="Z20" s="377">
+      <c r="Z20" s="375">
         <v>11</v>
       </c>
-      <c r="AA20" s="375">
+      <c r="AA20" s="373">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="AB20" s="251"/>
+      <c r="AB20" s="412">
+        <v>0</v>
+      </c>
       <c r="AC20" s="251"/>
       <c r="AD20" s="252"/>
       <c r="AE20" s="252"/>
@@ -5806,20 +6008,22 @@
       <c r="W21" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X21" s="368" t="s">
+      <c r="X21" s="367" t="s">
         <v>164</v>
       </c>
-      <c r="Y21" s="379">
+      <c r="Y21" s="377">
         <v>24</v>
       </c>
-      <c r="Z21" s="377">
+      <c r="Z21" s="375">
         <v>8</v>
       </c>
-      <c r="AA21" s="375">
+      <c r="AA21" s="373">
         <f t="shared" si="0"/>
         <v>1152</v>
       </c>
-      <c r="AB21" s="251"/>
+      <c r="AB21" s="412">
+        <v>0</v>
+      </c>
       <c r="AC21" s="251"/>
       <c r="AD21" s="251"/>
       <c r="AE21" s="252"/>
@@ -5896,20 +6100,22 @@
       <c r="W22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X22" s="368" t="s">
+      <c r="X22" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y22" s="379">
+      <c r="Y22" s="377">
         <v>18</v>
       </c>
-      <c r="Z22" s="380">
+      <c r="Z22" s="378">
         <v>10</v>
       </c>
-      <c r="AA22" s="375">
+      <c r="AA22" s="373">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="AB22" s="70"/>
+      <c r="AB22" s="412">
+        <v>0</v>
+      </c>
       <c r="AC22" s="70"/>
       <c r="AD22" s="70"/>
       <c r="AE22" s="70"/>
@@ -5986,18 +6192,21 @@
       <c r="W23" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X23" s="368" t="s">
+      <c r="X23" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y23" s="379">
+      <c r="Y23" s="377">
         <v>18</v>
       </c>
-      <c r="Z23" s="380">
+      <c r="Z23" s="378">
         <v>10</v>
       </c>
-      <c r="AA23" s="375">
+      <c r="AA23" s="373">
         <f t="shared" si="0"/>
         <v>1080</v>
+      </c>
+      <c r="AB23" s="412">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
@@ -6062,18 +6271,21 @@
       <c r="W24" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X24" s="368" t="s">
+      <c r="X24" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y24" s="379">
+      <c r="Y24" s="377">
         <v>18</v>
       </c>
-      <c r="Z24" s="380">
+      <c r="Z24" s="378">
         <v>10</v>
       </c>
-      <c r="AA24" s="375">
+      <c r="AA24" s="373">
         <f t="shared" si="0"/>
         <v>1080</v>
+      </c>
+      <c r="AB24" s="412">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
@@ -6138,18 +6350,21 @@
       <c r="W25" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X25" s="368" t="s">
+      <c r="X25" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y25" s="379">
+      <c r="Y25" s="377">
         <v>18</v>
       </c>
-      <c r="Z25" s="380">
+      <c r="Z25" s="378">
         <v>10</v>
       </c>
-      <c r="AA25" s="375">
+      <c r="AA25" s="373">
         <f t="shared" si="0"/>
         <v>1080</v>
+      </c>
+      <c r="AB25" s="412">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
@@ -6214,18 +6429,21 @@
       <c r="W26" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X26" s="368" t="s">
+      <c r="X26" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y26" s="379">
+      <c r="Y26" s="377">
         <v>11</v>
       </c>
-      <c r="Z26" s="380">
+      <c r="Z26" s="378">
         <v>11</v>
       </c>
-      <c r="AA26" s="375">
+      <c r="AA26" s="373">
         <f t="shared" si="0"/>
         <v>726</v>
+      </c>
+      <c r="AB26" s="412">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6290,18 +6508,21 @@
       <c r="W27" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="X27" s="369" t="s">
+      <c r="X27" s="368" t="s">
         <v>135</v>
       </c>
-      <c r="Y27" s="381">
+      <c r="Y27" s="379">
         <v>11</v>
       </c>
-      <c r="Z27" s="382">
+      <c r="Z27" s="380">
         <v>11</v>
       </c>
-      <c r="AA27" s="375">
+      <c r="AA27" s="373">
         <f t="shared" si="0"/>
         <v>726</v>
+      </c>
+      <c r="AB27" s="413">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
@@ -6778,10 +6999,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C8DC9D-642B-4F38-A15B-1D6ECF272355}">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6810,48 +7031,51 @@
     <col min="24" max="24" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="423" t="s">
+    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="443" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="425" t="s">
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="445" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="425"/>
-      <c r="J2" s="426" t="s">
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="446" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="426"/>
-      <c r="L2" s="426"/>
-      <c r="M2" s="426"/>
-      <c r="N2" s="427" t="s">
+      <c r="K2" s="446"/>
+      <c r="L2" s="446"/>
+      <c r="M2" s="446"/>
+      <c r="N2" s="447" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
-      <c r="R2" s="428" t="s">
+      <c r="O2" s="447"/>
+      <c r="P2" s="447"/>
+      <c r="Q2" s="447"/>
+      <c r="R2" s="448" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="428"/>
-      <c r="T2" s="428"/>
-      <c r="U2" s="421" t="s">
+      <c r="S2" s="448"/>
+      <c r="T2" s="448"/>
+      <c r="U2" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="421"/>
-      <c r="W2" s="421"/>
-      <c r="X2" s="422"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V2" s="441"/>
+      <c r="W2" s="441"/>
+      <c r="X2" s="442"/>
+      <c r="AB2" s="416" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="122" t="s">
         <v>29</v>
       </c>
@@ -6924,8 +7148,11 @@
       <c r="X3" s="129" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="416" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="212">
         <v>1504948</v>
       </c>
@@ -6961,7 +7188,7 @@
       <c r="W4" s="54"/>
       <c r="X4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="331" t="s">
         <v>385</v>
       </c>
@@ -6997,7 +7224,7 @@
       <c r="W5" s="54"/>
       <c r="X5" s="55"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="333" t="s">
         <v>387</v>
       </c>
@@ -7033,7 +7260,7 @@
       <c r="W6" s="54"/>
       <c r="X6" s="55"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="338">
         <v>1504949</v>
       </c>
@@ -7053,7 +7280,7 @@
       <c r="G7" s="141"/>
       <c r="H7" s="141"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="338">
         <v>1504950</v>
       </c>
@@ -7073,7 +7300,7 @@
       <c r="G8" s="141"/>
       <c r="H8" s="141"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="355">
         <v>1504951</v>
       </c>
@@ -7093,7 +7320,7 @@
       <c r="G9" s="141"/>
       <c r="H9" s="141"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="261"/>
       <c r="B10" s="262"/>
       <c r="C10" s="263"/>
@@ -7103,7 +7330,7 @@
       <c r="G10" s="141"/>
       <c r="H10" s="141"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="265"/>
       <c r="B11" s="266"/>
       <c r="C11" s="267"/>
@@ -7113,7 +7340,7 @@
       <c r="G11" s="141"/>
       <c r="H11" s="141"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="265"/>
       <c r="B12" s="266"/>
       <c r="C12" s="267"/>
@@ -7123,7 +7350,7 @@
       <c r="G12" s="141"/>
       <c r="H12" s="141"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="265"/>
       <c r="B13" s="266"/>
       <c r="C13" s="267"/>
@@ -7133,7 +7360,7 @@
       <c r="G13" s="141"/>
       <c r="H13" s="141"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="268"/>
       <c r="B14" s="257"/>
       <c r="C14" s="269"/>
@@ -7143,7 +7370,7 @@
       <c r="G14" s="141"/>
       <c r="H14" s="141"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="268"/>
       <c r="B15" s="266"/>
       <c r="C15" s="269"/>
@@ -7153,7 +7380,7 @@
       <c r="G15" s="141"/>
       <c r="H15" s="141"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="268"/>
       <c r="B16" s="257"/>
       <c r="C16" s="269"/>
@@ -7368,10 +7595,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0ACC90-AC3E-4CEA-AD5C-C0892311EFF7}">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7403,53 +7630,56 @@
     <col min="27" max="27" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="423" t="s">
+    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="443" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="425" t="s">
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="445" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="425"/>
-      <c r="J2" s="426" t="s">
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="446" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="426"/>
-      <c r="L2" s="426"/>
-      <c r="M2" s="426"/>
-      <c r="N2" s="427" t="s">
+      <c r="K2" s="446"/>
+      <c r="L2" s="446"/>
+      <c r="M2" s="446"/>
+      <c r="N2" s="447" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
-      <c r="R2" s="428" t="s">
+      <c r="O2" s="447"/>
+      <c r="P2" s="447"/>
+      <c r="Q2" s="447"/>
+      <c r="R2" s="448" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="428"/>
-      <c r="T2" s="428"/>
-      <c r="U2" s="421" t="s">
+      <c r="S2" s="448"/>
+      <c r="T2" s="448"/>
+      <c r="U2" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="421"/>
-      <c r="W2" s="421"/>
-      <c r="X2" s="422"/>
-      <c r="Y2" s="418" t="s">
+      <c r="V2" s="441"/>
+      <c r="W2" s="441"/>
+      <c r="X2" s="442"/>
+      <c r="Y2" s="438" t="s">
         <v>598</v>
       </c>
-      <c r="Z2" s="419"/>
-      <c r="AA2" s="420"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="439"/>
+      <c r="AA2" s="440"/>
+      <c r="AB2" s="416" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="285" t="s">
         <v>29</v>
       </c>
@@ -7522,17 +7752,20 @@
       <c r="X3" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="395" t="s">
+      <c r="Y3" s="393" t="s">
         <v>599</v>
       </c>
-      <c r="Z3" s="396" t="s">
+      <c r="Z3" s="394" t="s">
         <v>600</v>
       </c>
-      <c r="AA3" s="397" t="s">
+      <c r="AA3" s="408" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="416" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="198">
         <v>1306276</v>
       </c>
@@ -7588,21 +7821,21 @@
       <c r="W4" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X4" s="368" t="s">
+      <c r="X4" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y4" s="392">
+      <c r="Y4" s="390">
         <v>11</v>
       </c>
-      <c r="Z4" s="385">
+      <c r="Z4" s="383">
         <v>15</v>
       </c>
-      <c r="AA4" s="386">
+      <c r="AA4" s="384">
         <f>(Y4*Z4)*E4</f>
         <v>990</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="132" t="s">
         <v>413</v>
       </c>
@@ -7658,21 +7891,21 @@
       <c r="W5" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X5" s="368" t="s">
+      <c r="X5" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y5" s="407">
+      <c r="Y5" s="405">
         <v>11</v>
       </c>
-      <c r="Z5" s="408">
+      <c r="Z5" s="406">
         <v>15</v>
       </c>
-      <c r="AA5" s="398">
+      <c r="AA5" s="396">
         <f>(Y5*Z5)*E5</f>
         <v>990</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="339"/>
       <c r="B6" s="340"/>
       <c r="C6" s="341"/>
@@ -7698,7 +7931,7 @@
       <c r="W6" s="70"/>
       <c r="X6" s="70"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="342"/>
       <c r="B7" s="343"/>
       <c r="C7" s="341"/>
@@ -7724,7 +7957,7 @@
       <c r="W7" s="70"/>
       <c r="X7" s="70"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="342"/>
       <c r="B8" s="343"/>
       <c r="C8" s="341"/>
@@ -7750,7 +7983,7 @@
       <c r="W8" s="70"/>
       <c r="X8" s="70"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="111"/>
       <c r="B9" s="344"/>
       <c r="C9" s="113"/>
@@ -7776,7 +8009,7 @@
       <c r="W9" s="70"/>
       <c r="X9" s="70"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="111"/>
       <c r="B10" s="344"/>
       <c r="C10" s="113"/>
@@ -7802,7 +8035,7 @@
       <c r="W10" s="70"/>
       <c r="X10" s="70"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="111"/>
       <c r="B11" s="344"/>
       <c r="C11" s="113"/>
@@ -7828,7 +8061,7 @@
       <c r="W11" s="70"/>
       <c r="X11" s="70"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="111"/>
       <c r="B12" s="344"/>
       <c r="C12" s="113"/>
@@ -7854,7 +8087,7 @@
       <c r="W12" s="70"/>
       <c r="X12" s="70"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="111"/>
       <c r="B13" s="344"/>
       <c r="C13" s="113"/>
@@ -7880,7 +8113,7 @@
       <c r="W13" s="70"/>
       <c r="X13" s="70"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="345"/>
       <c r="B14" s="343"/>
       <c r="C14" s="346"/>
@@ -7906,7 +8139,7 @@
       <c r="W14" s="70"/>
       <c r="X14" s="70"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="345"/>
       <c r="B15" s="344"/>
       <c r="C15" s="346"/>
@@ -7932,7 +8165,7 @@
       <c r="W15" s="70"/>
       <c r="X15" s="70"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="345"/>
       <c r="B16" s="343"/>
       <c r="C16" s="346"/>
@@ -8494,10 +8727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6921BF7A-E7AE-4BA3-8C2F-B55511AEBFDE}">
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8529,53 +8762,56 @@
     <col min="27" max="27" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="423" t="s">
+    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="443" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="425" t="s">
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="445" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="425"/>
-      <c r="J2" s="426" t="s">
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="446" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="426"/>
-      <c r="L2" s="426"/>
-      <c r="M2" s="426"/>
-      <c r="N2" s="427" t="s">
+      <c r="K2" s="446"/>
+      <c r="L2" s="446"/>
+      <c r="M2" s="446"/>
+      <c r="N2" s="447" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
-      <c r="R2" s="428" t="s">
+      <c r="O2" s="447"/>
+      <c r="P2" s="447"/>
+      <c r="Q2" s="447"/>
+      <c r="R2" s="448" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="428"/>
-      <c r="T2" s="428"/>
-      <c r="U2" s="421" t="s">
+      <c r="S2" s="448"/>
+      <c r="T2" s="448"/>
+      <c r="U2" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="421"/>
-      <c r="W2" s="421"/>
-      <c r="X2" s="422"/>
-      <c r="Y2" s="418" t="s">
+      <c r="V2" s="441"/>
+      <c r="W2" s="441"/>
+      <c r="X2" s="442"/>
+      <c r="Y2" s="438" t="s">
         <v>598</v>
       </c>
-      <c r="Z2" s="419"/>
-      <c r="AA2" s="420"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="439"/>
+      <c r="AA2" s="440"/>
+      <c r="AB2" s="418" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="285" t="s">
         <v>29</v>
       </c>
@@ -8648,17 +8884,20 @@
       <c r="X3" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="370" t="s">
+      <c r="Y3" s="369" t="s">
         <v>599</v>
       </c>
-      <c r="Z3" s="371" t="s">
+      <c r="Z3" s="370" t="s">
         <v>600</v>
       </c>
-      <c r="AA3" s="372" t="s">
+      <c r="AA3" s="407" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AB3" s="418" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="198">
         <v>1406278</v>
       </c>
@@ -8714,21 +8953,24 @@
       <c r="W4" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X4" s="368" t="s">
+      <c r="X4" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y4" s="384">
+      <c r="Y4" s="382">
         <v>11</v>
       </c>
-      <c r="Z4" s="385">
+      <c r="Z4" s="383">
         <v>15</v>
       </c>
-      <c r="AA4" s="386">
+      <c r="AA4" s="384">
         <f>(Y4*Z4)*E4</f>
         <v>990</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="137" t="s">
         <v>395</v>
       </c>
@@ -8784,21 +9026,24 @@
       <c r="W5" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X5" s="368" t="s">
+      <c r="X5" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y5" s="387">
+      <c r="Y5" s="385">
         <v>11</v>
       </c>
-      <c r="Z5" s="383">
+      <c r="Z5" s="381">
         <v>15</v>
       </c>
-      <c r="AA5" s="375">
+      <c r="AA5" s="373">
         <f t="shared" ref="AA5:AA6" si="0">(Y5*Z5)*E5</f>
         <v>990</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB5" s="419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="132" t="s">
         <v>397</v>
       </c>
@@ -8854,21 +9099,24 @@
       <c r="W6" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X6" s="368" t="s">
+      <c r="X6" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y6" s="388">
+      <c r="Y6" s="386">
         <v>11</v>
       </c>
-      <c r="Z6" s="389">
+      <c r="Z6" s="387">
         <v>15</v>
       </c>
-      <c r="AA6" s="390">
+      <c r="AA6" s="388">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="256"/>
       <c r="B7" s="257"/>
       <c r="C7" s="258"/>
@@ -8878,7 +9126,7 @@
       <c r="G7" s="141"/>
       <c r="H7" s="141"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="256"/>
       <c r="B8" s="257"/>
       <c r="C8" s="258"/>
@@ -8888,7 +9136,7 @@
       <c r="G8" s="141"/>
       <c r="H8" s="141"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="261"/>
       <c r="B9" s="262"/>
       <c r="C9" s="263"/>
@@ -8898,7 +9146,7 @@
       <c r="G9" s="141"/>
       <c r="H9" s="141"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="261"/>
       <c r="B10" s="262"/>
       <c r="C10" s="263"/>
@@ -8908,7 +9156,7 @@
       <c r="G10" s="141"/>
       <c r="H10" s="141"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="265"/>
       <c r="B11" s="266"/>
       <c r="C11" s="267"/>
@@ -8918,7 +9166,7 @@
       <c r="G11" s="141"/>
       <c r="H11" s="141"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="265"/>
       <c r="B12" s="266"/>
       <c r="C12" s="267"/>
@@ -8928,7 +9176,7 @@
       <c r="G12" s="141"/>
       <c r="H12" s="141"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="265"/>
       <c r="B13" s="266"/>
       <c r="C13" s="267"/>
@@ -8938,7 +9186,7 @@
       <c r="G13" s="141"/>
       <c r="H13" s="141"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="268"/>
       <c r="B14" s="257"/>
       <c r="C14" s="269"/>
@@ -8948,7 +9196,7 @@
       <c r="G14" s="141"/>
       <c r="H14" s="141"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="268"/>
       <c r="B15" s="266"/>
       <c r="C15" s="269"/>
@@ -8958,7 +9206,7 @@
       <c r="G15" s="141"/>
       <c r="H15" s="141"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="268"/>
       <c r="B16" s="257"/>
       <c r="C16" s="269"/>
@@ -9182,10 +9430,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O4" sqref="O4"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection activeCell="AD18" sqref="AD18"/>
+      <selection pane="topRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomLeft" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9238,61 +9486,63 @@
       <c r="AP1" s="70"/>
     </row>
     <row r="2" spans="1:42" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="410" t="s">
+      <c r="A2" s="430" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="411"/>
-      <c r="C2" s="411"/>
-      <c r="D2" s="411"/>
-      <c r="E2" s="411"/>
-      <c r="F2" s="412" t="s">
+      <c r="B2" s="431"/>
+      <c r="C2" s="431"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="432" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="412"/>
-      <c r="H2" s="412"/>
-      <c r="I2" s="412"/>
-      <c r="J2" s="413" t="s">
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="432"/>
+      <c r="J2" s="433" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="413"/>
-      <c r="N2" s="417" t="s">
+      <c r="K2" s="433"/>
+      <c r="L2" s="433"/>
+      <c r="M2" s="433"/>
+      <c r="N2" s="437" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="417"/>
-      <c r="P2" s="417"/>
-      <c r="Q2" s="417"/>
-      <c r="R2" s="414" t="s">
+      <c r="O2" s="437"/>
+      <c r="P2" s="437"/>
+      <c r="Q2" s="437"/>
+      <c r="R2" s="434" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="414"/>
-      <c r="T2" s="414"/>
-      <c r="U2" s="415" t="s">
+      <c r="S2" s="434"/>
+      <c r="T2" s="434"/>
+      <c r="U2" s="435" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="415"/>
-      <c r="W2" s="415"/>
-      <c r="X2" s="429"/>
-      <c r="Y2" s="418" t="s">
+      <c r="V2" s="435"/>
+      <c r="W2" s="435"/>
+      <c r="X2" s="449"/>
+      <c r="Y2" s="438" t="s">
         <v>598</v>
       </c>
-      <c r="Z2" s="419"/>
-      <c r="AA2" s="420"/>
-      <c r="AB2" s="366"/>
-      <c r="AC2" s="409"/>
-      <c r="AD2" s="409"/>
-      <c r="AE2" s="409"/>
-      <c r="AF2" s="409"/>
-      <c r="AG2" s="409"/>
-      <c r="AH2" s="409"/>
-      <c r="AI2" s="409"/>
-      <c r="AJ2" s="409"/>
-      <c r="AK2" s="409"/>
-      <c r="AL2" s="409"/>
-      <c r="AM2" s="409"/>
-      <c r="AN2" s="409"/>
-      <c r="AO2" s="409"/>
+      <c r="Z2" s="439"/>
+      <c r="AA2" s="440"/>
+      <c r="AB2" s="421" t="s">
+        <v>604</v>
+      </c>
+      <c r="AC2" s="429"/>
+      <c r="AD2" s="429"/>
+      <c r="AE2" s="429"/>
+      <c r="AF2" s="429"/>
+      <c r="AG2" s="429"/>
+      <c r="AH2" s="429"/>
+      <c r="AI2" s="429"/>
+      <c r="AJ2" s="429"/>
+      <c r="AK2" s="429"/>
+      <c r="AL2" s="429"/>
+      <c r="AM2" s="429"/>
+      <c r="AN2" s="429"/>
+      <c r="AO2" s="429"/>
       <c r="AP2" s="70"/>
     </row>
     <row r="3" spans="1:42" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9368,16 +9618,18 @@
       <c r="X3" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="395" t="s">
+      <c r="Y3" s="393" t="s">
         <v>599</v>
       </c>
-      <c r="Z3" s="396" t="s">
+      <c r="Z3" s="394" t="s">
         <v>600</v>
       </c>
-      <c r="AA3" s="397" t="s">
+      <c r="AA3" s="408" t="s">
         <v>601</v>
       </c>
-      <c r="AB3" s="253"/>
+      <c r="AB3" s="415" t="s">
+        <v>603</v>
+      </c>
       <c r="AC3" s="253"/>
       <c r="AD3" s="253"/>
       <c r="AE3" s="253"/>
@@ -9449,20 +9701,22 @@
       <c r="W4" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="X4" s="393" t="s">
+      <c r="X4" s="391" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" s="392">
+      <c r="Y4" s="390">
         <v>24</v>
       </c>
-      <c r="Z4" s="385">
+      <c r="Z4" s="383">
         <v>8</v>
       </c>
-      <c r="AA4" s="386">
+      <c r="AA4" s="384">
         <f>(Y4*Z4)*E4</f>
         <v>768</v>
       </c>
-      <c r="AB4" s="70"/>
+      <c r="AB4" s="422">
+        <v>0</v>
+      </c>
       <c r="AC4" s="70"/>
       <c r="AD4" s="70"/>
       <c r="AE4" s="70"/>
@@ -9534,20 +9788,22 @@
       <c r="W5" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X5" s="368" t="s">
+      <c r="X5" s="367" t="s">
         <v>164</v>
       </c>
-      <c r="Y5" s="399">
+      <c r="Y5" s="397">
         <v>24</v>
       </c>
-      <c r="Z5" s="377">
+      <c r="Z5" s="375">
         <v>8</v>
       </c>
-      <c r="AA5" s="378">
+      <c r="AA5" s="376">
         <f t="shared" ref="AA5:AA18" si="0">(Y5*Z5)*E5</f>
         <v>768</v>
       </c>
-      <c r="AB5" s="70"/>
+      <c r="AB5" s="422">
+        <v>0</v>
+      </c>
       <c r="AC5" s="70"/>
       <c r="AD5" s="70"/>
       <c r="AE5" s="70"/>
@@ -9619,20 +9875,22 @@
       <c r="W6" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X6" s="368" t="s">
+      <c r="X6" s="367" t="s">
         <v>164</v>
       </c>
-      <c r="Y6" s="399">
+      <c r="Y6" s="397">
         <v>24</v>
       </c>
-      <c r="Z6" s="377">
+      <c r="Z6" s="375">
         <v>8</v>
       </c>
-      <c r="AA6" s="378">
+      <c r="AA6" s="376">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="AB6" s="70"/>
+      <c r="AB6" s="422">
+        <v>0</v>
+      </c>
       <c r="AC6" s="70"/>
       <c r="AD6" s="70"/>
       <c r="AE6" s="70"/>
@@ -9704,20 +9962,22 @@
       <c r="W7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X7" s="368" t="s">
+      <c r="X7" s="367" t="s">
         <v>164</v>
       </c>
-      <c r="Y7" s="399">
+      <c r="Y7" s="397">
         <v>24</v>
       </c>
-      <c r="Z7" s="377">
+      <c r="Z7" s="375">
         <v>8</v>
       </c>
-      <c r="AA7" s="378">
+      <c r="AA7" s="376">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="AB7" s="70"/>
+      <c r="AB7" s="422">
+        <v>0</v>
+      </c>
       <c r="AC7" s="70"/>
       <c r="AD7" s="70"/>
       <c r="AE7" s="70"/>
@@ -9789,20 +10049,22 @@
       <c r="W8" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X8" s="368" t="s">
+      <c r="X8" s="367" t="s">
         <v>164</v>
       </c>
-      <c r="Y8" s="399">
+      <c r="Y8" s="397">
         <v>24</v>
       </c>
-      <c r="Z8" s="377">
+      <c r="Z8" s="375">
         <v>8</v>
       </c>
-      <c r="AA8" s="378">
+      <c r="AA8" s="376">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="AB8" s="70"/>
+      <c r="AB8" s="422">
+        <v>0</v>
+      </c>
       <c r="AC8" s="70"/>
       <c r="AD8" s="70"/>
       <c r="AE8" s="70"/>
@@ -9874,20 +10136,22 @@
       <c r="W9" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X9" s="368" t="s">
+      <c r="X9" s="367" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="399">
+      <c r="Y9" s="397">
         <v>24</v>
       </c>
-      <c r="Z9" s="377">
+      <c r="Z9" s="375">
         <v>8</v>
       </c>
-      <c r="AA9" s="378">
+      <c r="AA9" s="376">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="AB9" s="70"/>
+      <c r="AB9" s="422">
+        <v>0</v>
+      </c>
       <c r="AC9" s="70"/>
       <c r="AD9" s="70"/>
       <c r="AE9" s="70"/>
@@ -9965,20 +10229,22 @@
       <c r="W10" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X10" s="368" t="s">
+      <c r="X10" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y10" s="399">
+      <c r="Y10" s="397">
         <v>11</v>
       </c>
-      <c r="Z10" s="377">
+      <c r="Z10" s="375">
         <v>11</v>
       </c>
-      <c r="AA10" s="378">
+      <c r="AA10" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="AB10" s="251"/>
+      <c r="AB10" s="422">
+        <v>0</v>
+      </c>
       <c r="AC10" s="251"/>
       <c r="AD10" s="252"/>
       <c r="AE10" s="252"/>
@@ -10056,20 +10322,22 @@
       <c r="W11" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X11" s="368" t="s">
+      <c r="X11" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y11" s="399">
+      <c r="Y11" s="397">
         <v>11</v>
       </c>
-      <c r="Z11" s="377">
+      <c r="Z11" s="375">
         <v>11</v>
       </c>
-      <c r="AA11" s="378">
+      <c r="AA11" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="AB11" s="251"/>
+      <c r="AB11" s="422">
+        <v>0</v>
+      </c>
       <c r="AC11" s="251"/>
       <c r="AD11" s="252"/>
       <c r="AE11" s="252"/>
@@ -10147,20 +10415,22 @@
       <c r="W12" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X12" s="368" t="s">
+      <c r="X12" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y12" s="399">
+      <c r="Y12" s="397">
         <v>11</v>
       </c>
-      <c r="Z12" s="377">
+      <c r="Z12" s="375">
         <v>11</v>
       </c>
-      <c r="AA12" s="378">
+      <c r="AA12" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="AB12" s="251"/>
+      <c r="AB12" s="422">
+        <v>0</v>
+      </c>
       <c r="AC12" s="251"/>
       <c r="AD12" s="252"/>
       <c r="AE12" s="252"/>
@@ -10238,20 +10508,22 @@
       <c r="W13" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X13" s="368" t="s">
+      <c r="X13" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y13" s="399">
+      <c r="Y13" s="397">
         <v>11</v>
       </c>
-      <c r="Z13" s="377">
+      <c r="Z13" s="375">
         <v>11</v>
       </c>
-      <c r="AA13" s="378">
+      <c r="AA13" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="AB13" s="251"/>
+      <c r="AB13" s="422">
+        <v>0</v>
+      </c>
       <c r="AC13" s="251"/>
       <c r="AD13" s="252"/>
       <c r="AE13" s="252"/>
@@ -10329,20 +10601,22 @@
       <c r="W14" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="X14" s="394" t="s">
+      <c r="X14" s="392" t="s">
         <v>135</v>
       </c>
-      <c r="Y14" s="399">
+      <c r="Y14" s="397">
         <v>11</v>
       </c>
-      <c r="Z14" s="377">
+      <c r="Z14" s="375">
         <v>11</v>
       </c>
-      <c r="AA14" s="378">
+      <c r="AA14" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="AB14" s="251"/>
+      <c r="AB14" s="422">
+        <v>0</v>
+      </c>
       <c r="AC14" s="251"/>
       <c r="AD14" s="252"/>
       <c r="AE14" s="252"/>
@@ -10420,20 +10694,22 @@
       <c r="W15" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="X15" s="394" t="s">
+      <c r="X15" s="392" t="s">
         <v>135</v>
       </c>
-      <c r="Y15" s="399">
+      <c r="Y15" s="397">
         <v>11</v>
       </c>
-      <c r="Z15" s="377">
+      <c r="Z15" s="375">
         <v>11</v>
       </c>
-      <c r="AA15" s="378">
+      <c r="AA15" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="AB15" s="70"/>
+      <c r="AB15" s="422">
+        <v>0</v>
+      </c>
       <c r="AC15" s="70"/>
       <c r="AD15" s="70"/>
       <c r="AE15" s="70"/>
@@ -10511,20 +10787,22 @@
       <c r="W16" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="X16" s="394" t="s">
+      <c r="X16" s="392" t="s">
         <v>135</v>
       </c>
-      <c r="Y16" s="399">
+      <c r="Y16" s="397">
         <v>11</v>
       </c>
-      <c r="Z16" s="377">
+      <c r="Z16" s="375">
         <v>11</v>
       </c>
-      <c r="AA16" s="378">
+      <c r="AA16" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="AB16" s="70"/>
+      <c r="AB16" s="422">
+        <v>0</v>
+      </c>
       <c r="AC16" s="70"/>
       <c r="AD16" s="70"/>
       <c r="AE16" s="70"/>
@@ -10602,20 +10880,22 @@
       <c r="W17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X17" s="368" t="s">
+      <c r="X17" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y17" s="399">
+      <c r="Y17" s="397">
         <v>18</v>
       </c>
-      <c r="Z17" s="377">
+      <c r="Z17" s="375">
         <v>10</v>
       </c>
-      <c r="AA17" s="378">
+      <c r="AA17" s="376">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="AB17" s="70"/>
+      <c r="AB17" s="422">
+        <v>0</v>
+      </c>
       <c r="AC17" s="70"/>
       <c r="AD17" s="70"/>
       <c r="AE17" s="70"/>
@@ -10693,18 +10973,21 @@
       <c r="W18" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="X18" s="369" t="s">
+      <c r="X18" s="368" t="s">
         <v>121</v>
       </c>
-      <c r="Y18" s="400">
+      <c r="Y18" s="398">
         <v>18</v>
       </c>
-      <c r="Z18" s="401">
+      <c r="Z18" s="399">
         <v>10</v>
       </c>
-      <c r="AA18" s="398">
+      <c r="AA18" s="396">
         <f t="shared" si="0"/>
         <v>1080</v>
+      </c>
+      <c r="AB18" s="423">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10731,14 +11014,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O4" sqref="O4"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="AD18" sqref="AD18"/>
+      <selection pane="topRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomLeft" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10767,47 +11050,50 @@
     <col min="23" max="23" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="423" t="s">
+    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="443" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="425" t="s">
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="445" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="425"/>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="426" t="s">
+      <c r="F2" s="445"/>
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="446" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="426"/>
-      <c r="K2" s="426"/>
-      <c r="L2" s="426"/>
-      <c r="M2" s="427" t="s">
+      <c r="J2" s="446"/>
+      <c r="K2" s="446"/>
+      <c r="L2" s="446"/>
+      <c r="M2" s="447" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="427"/>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="421" t="s">
+      <c r="N2" s="447"/>
+      <c r="O2" s="447"/>
+      <c r="P2" s="447"/>
+      <c r="Q2" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="421"/>
-      <c r="S2" s="421"/>
-      <c r="T2" s="422"/>
-      <c r="U2" s="418" t="s">
+      <c r="R2" s="441"/>
+      <c r="S2" s="441"/>
+      <c r="T2" s="442"/>
+      <c r="U2" s="438" t="s">
         <v>598</v>
       </c>
-      <c r="V2" s="419"/>
-      <c r="W2" s="420"/>
-    </row>
-    <row r="3" spans="1:23" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="439"/>
+      <c r="W2" s="450"/>
+      <c r="X2" s="416" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="285" t="s">
         <v>29</v>
       </c>
@@ -10868,17 +11154,20 @@
       <c r="T3" s="320" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="395" t="s">
+      <c r="U3" s="393" t="s">
         <v>599</v>
       </c>
-      <c r="V3" s="396" t="s">
+      <c r="V3" s="394" t="s">
         <v>600</v>
       </c>
-      <c r="W3" s="397" t="s">
+      <c r="W3" s="395" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AB3" s="416" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="309">
         <v>1025700</v>
       </c>
@@ -10928,21 +11217,21 @@
       <c r="S4" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="T4" s="367" t="s">
+      <c r="T4" s="366" t="s">
         <v>123</v>
       </c>
-      <c r="U4" s="392">
+      <c r="U4" s="390">
         <v>6</v>
       </c>
-      <c r="V4" s="385">
+      <c r="V4" s="383">
         <v>20</v>
       </c>
-      <c r="W4" s="386">
+      <c r="W4" s="384">
         <f>(U4*V4)*D4</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1025147</v>
       </c>
@@ -10986,19 +11275,19 @@
       <c r="Q5" s="306"/>
       <c r="R5" s="306"/>
       <c r="S5" s="306"/>
-      <c r="T5" s="402"/>
-      <c r="U5" s="387">
+      <c r="T5" s="400"/>
+      <c r="U5" s="385">
         <v>24</v>
       </c>
-      <c r="V5" s="383">
+      <c r="V5" s="381">
         <v>6</v>
       </c>
-      <c r="W5" s="378">
+      <c r="W5" s="376">
         <f t="shared" ref="W5:W46" si="0">(U5*V5)*D5</f>
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1050209</v>
       </c>
@@ -11042,19 +11331,19 @@
       <c r="Q6" s="306"/>
       <c r="R6" s="306"/>
       <c r="S6" s="306"/>
-      <c r="T6" s="402"/>
-      <c r="U6" s="387">
+      <c r="T6" s="400"/>
+      <c r="U6" s="385">
         <v>15</v>
       </c>
-      <c r="V6" s="383">
+      <c r="V6" s="381">
         <v>2</v>
       </c>
-      <c r="W6" s="378">
+      <c r="W6" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>1050218</v>
       </c>
@@ -11098,19 +11387,19 @@
       <c r="Q7" s="306"/>
       <c r="R7" s="306"/>
       <c r="S7" s="306"/>
-      <c r="T7" s="402"/>
-      <c r="U7" s="387">
+      <c r="T7" s="400"/>
+      <c r="U7" s="385">
         <v>15</v>
       </c>
-      <c r="V7" s="383">
+      <c r="V7" s="381">
         <v>2</v>
       </c>
-      <c r="W7" s="378">
+      <c r="W7" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>1025710</v>
       </c>
@@ -11160,21 +11449,21 @@
       <c r="S8" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T8" s="368" t="s">
+      <c r="T8" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U8" s="387">
+      <c r="U8" s="385">
         <v>6</v>
       </c>
-      <c r="V8" s="383">
+      <c r="V8" s="381">
         <v>20</v>
       </c>
-      <c r="W8" s="378">
+      <c r="W8" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="37">
         <v>1025709</v>
       </c>
@@ -11224,21 +11513,21 @@
       <c r="S9" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T9" s="368" t="s">
+      <c r="T9" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U9" s="387">
+      <c r="U9" s="385">
         <v>6</v>
       </c>
-      <c r="V9" s="383">
+      <c r="V9" s="381">
         <v>20</v>
       </c>
-      <c r="W9" s="378">
+      <c r="W9" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>1050217</v>
       </c>
@@ -11282,19 +11571,19 @@
       <c r="Q10" s="306"/>
       <c r="R10" s="306"/>
       <c r="S10" s="306"/>
-      <c r="T10" s="402"/>
-      <c r="U10" s="387">
+      <c r="T10" s="400"/>
+      <c r="U10" s="385">
         <v>15</v>
       </c>
-      <c r="V10" s="383">
+      <c r="V10" s="381">
         <v>2</v>
       </c>
-      <c r="W10" s="378">
+      <c r="W10" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>1025711</v>
       </c>
@@ -11344,21 +11633,21 @@
       <c r="S11" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T11" s="368" t="s">
+      <c r="T11" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U11" s="387">
+      <c r="U11" s="385">
         <v>6</v>
       </c>
-      <c r="V11" s="383">
+      <c r="V11" s="381">
         <v>20</v>
       </c>
-      <c r="W11" s="378">
+      <c r="W11" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>1050216</v>
       </c>
@@ -11402,19 +11691,19 @@
       <c r="Q12" s="306"/>
       <c r="R12" s="306"/>
       <c r="S12" s="306"/>
-      <c r="T12" s="402"/>
-      <c r="U12" s="387">
+      <c r="T12" s="400"/>
+      <c r="U12" s="385">
         <v>15</v>
       </c>
-      <c r="V12" s="383">
+      <c r="V12" s="381">
         <v>2</v>
       </c>
-      <c r="W12" s="378">
+      <c r="W12" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>1025703</v>
       </c>
@@ -11464,21 +11753,21 @@
       <c r="S13" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T13" s="368" t="s">
+      <c r="T13" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U13" s="387">
+      <c r="U13" s="385">
         <v>6</v>
       </c>
-      <c r="V13" s="383">
+      <c r="V13" s="381">
         <v>20</v>
       </c>
-      <c r="W13" s="378">
+      <c r="W13" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>1025704</v>
       </c>
@@ -11528,21 +11817,21 @@
       <c r="S14" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T14" s="368" t="s">
+      <c r="T14" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U14" s="387">
+      <c r="U14" s="385">
         <v>6</v>
       </c>
-      <c r="V14" s="383">
+      <c r="V14" s="381">
         <v>20</v>
       </c>
-      <c r="W14" s="378">
+      <c r="W14" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>1025707</v>
       </c>
@@ -11592,21 +11881,21 @@
       <c r="S15" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T15" s="368" t="s">
+      <c r="T15" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U15" s="387">
+      <c r="U15" s="385">
         <v>6</v>
       </c>
-      <c r="V15" s="383">
+      <c r="V15" s="381">
         <v>20</v>
       </c>
-      <c r="W15" s="378">
+      <c r="W15" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>1025706</v>
       </c>
@@ -11656,16 +11945,16 @@
       <c r="S16" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T16" s="368" t="s">
+      <c r="T16" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U16" s="387">
+      <c r="U16" s="385">
         <v>6</v>
       </c>
-      <c r="V16" s="383">
+      <c r="V16" s="381">
         <v>20</v>
       </c>
-      <c r="W16" s="378">
+      <c r="W16" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -11714,14 +12003,14 @@
       <c r="Q17" s="306"/>
       <c r="R17" s="306"/>
       <c r="S17" s="306"/>
-      <c r="T17" s="402"/>
-      <c r="U17" s="387">
+      <c r="T17" s="400"/>
+      <c r="U17" s="385">
         <v>15</v>
       </c>
-      <c r="V17" s="383">
+      <c r="V17" s="381">
         <v>2</v>
       </c>
-      <c r="W17" s="378">
+      <c r="W17" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -11776,16 +12065,16 @@
       <c r="S18" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T18" s="368" t="s">
+      <c r="T18" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U18" s="387">
+      <c r="U18" s="385">
         <v>6</v>
       </c>
-      <c r="V18" s="383">
+      <c r="V18" s="381">
         <v>20</v>
       </c>
-      <c r="W18" s="378">
+      <c r="W18" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -11840,16 +12129,16 @@
       <c r="S19" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T19" s="368" t="s">
+      <c r="T19" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U19" s="387">
+      <c r="U19" s="385">
         <v>6</v>
       </c>
-      <c r="V19" s="383">
+      <c r="V19" s="381">
         <v>20</v>
       </c>
-      <c r="W19" s="378">
+      <c r="W19" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -11904,16 +12193,16 @@
       <c r="S20" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T20" s="368" t="s">
+      <c r="T20" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U20" s="387">
+      <c r="U20" s="385">
         <v>6</v>
       </c>
-      <c r="V20" s="383">
+      <c r="V20" s="381">
         <v>20</v>
       </c>
-      <c r="W20" s="378">
+      <c r="W20" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -11968,16 +12257,16 @@
       <c r="S21" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T21" s="368" t="s">
+      <c r="T21" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="U21" s="387">
+      <c r="U21" s="385">
         <v>6</v>
       </c>
-      <c r="V21" s="383">
+      <c r="V21" s="381">
         <v>8</v>
       </c>
-      <c r="W21" s="378">
+      <c r="W21" s="376">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
@@ -12032,16 +12321,16 @@
       <c r="S22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T22" s="368" t="s">
+      <c r="T22" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="U22" s="387">
+      <c r="U22" s="385">
         <v>6</v>
       </c>
-      <c r="V22" s="383">
+      <c r="V22" s="381">
         <v>8</v>
       </c>
-      <c r="W22" s="378">
+      <c r="W22" s="376">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
@@ -12096,16 +12385,16 @@
       <c r="S23" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T23" s="368" t="s">
+      <c r="T23" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="U23" s="387">
+      <c r="U23" s="385">
         <v>6</v>
       </c>
-      <c r="V23" s="383">
+      <c r="V23" s="381">
         <v>8</v>
       </c>
-      <c r="W23" s="378">
+      <c r="W23" s="376">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
@@ -12160,16 +12449,16 @@
       <c r="S24" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T24" s="368" t="s">
+      <c r="T24" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="U24" s="387">
+      <c r="U24" s="385">
         <v>6</v>
       </c>
-      <c r="V24" s="383">
+      <c r="V24" s="381">
         <v>8</v>
       </c>
-      <c r="W24" s="378">
+      <c r="W24" s="376">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
@@ -12218,14 +12507,14 @@
       <c r="Q25" s="306"/>
       <c r="R25" s="306"/>
       <c r="S25" s="306"/>
-      <c r="T25" s="402"/>
-      <c r="U25" s="387">
+      <c r="T25" s="400"/>
+      <c r="U25" s="385">
         <v>24</v>
       </c>
-      <c r="V25" s="383">
+      <c r="V25" s="381">
         <v>6</v>
       </c>
-      <c r="W25" s="378">
+      <c r="W25" s="376">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
@@ -12274,14 +12563,14 @@
       <c r="Q26" s="306"/>
       <c r="R26" s="306"/>
       <c r="S26" s="306"/>
-      <c r="T26" s="402"/>
-      <c r="U26" s="387">
+      <c r="T26" s="400"/>
+      <c r="U26" s="385">
         <v>15</v>
       </c>
-      <c r="V26" s="383">
+      <c r="V26" s="381">
         <v>2</v>
       </c>
-      <c r="W26" s="378">
+      <c r="W26" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -12330,14 +12619,14 @@
       <c r="Q27" s="306"/>
       <c r="R27" s="306"/>
       <c r="S27" s="306"/>
-      <c r="T27" s="402"/>
-      <c r="U27" s="387">
+      <c r="T27" s="400"/>
+      <c r="U27" s="385">
         <v>24</v>
       </c>
-      <c r="V27" s="383">
+      <c r="V27" s="381">
         <v>6</v>
       </c>
-      <c r="W27" s="378">
+      <c r="W27" s="376">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
@@ -12386,14 +12675,14 @@
       <c r="Q28" s="28"/>
       <c r="R28" s="28"/>
       <c r="S28" s="28"/>
-      <c r="T28" s="368"/>
-      <c r="U28" s="387">
+      <c r="T28" s="367"/>
+      <c r="U28" s="385">
         <v>15</v>
       </c>
-      <c r="V28" s="383">
+      <c r="V28" s="381">
         <v>2</v>
       </c>
-      <c r="W28" s="378">
+      <c r="W28" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -12448,16 +12737,16 @@
       <c r="S29" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T29" s="368" t="s">
+      <c r="T29" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="U29" s="387">
+      <c r="U29" s="385">
         <v>6</v>
       </c>
-      <c r="V29" s="383">
+      <c r="V29" s="381">
         <v>8</v>
       </c>
-      <c r="W29" s="378">
+      <c r="W29" s="376">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
@@ -12512,16 +12801,16 @@
       <c r="S30" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T30" s="368" t="s">
+      <c r="T30" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="U30" s="387">
+      <c r="U30" s="385">
         <v>6</v>
       </c>
-      <c r="V30" s="383">
+      <c r="V30" s="381">
         <v>8</v>
       </c>
-      <c r="W30" s="378">
+      <c r="W30" s="376">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
@@ -12576,16 +12865,16 @@
       <c r="S31" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T31" s="368" t="s">
+      <c r="T31" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="U31" s="387">
+      <c r="U31" s="385">
         <v>6</v>
       </c>
-      <c r="V31" s="383">
+      <c r="V31" s="381">
         <v>8</v>
       </c>
-      <c r="W31" s="378">
+      <c r="W31" s="376">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
@@ -12640,16 +12929,16 @@
       <c r="S32" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T32" s="368" t="s">
+      <c r="T32" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="U32" s="387">
+      <c r="U32" s="385">
         <v>6</v>
       </c>
-      <c r="V32" s="383">
+      <c r="V32" s="381">
         <v>8</v>
       </c>
-      <c r="W32" s="378">
+      <c r="W32" s="376">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
@@ -12704,16 +12993,16 @@
       <c r="S33" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T33" s="368" t="s">
+      <c r="T33" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U33" s="387">
+      <c r="U33" s="385">
         <v>6</v>
       </c>
-      <c r="V33" s="383">
+      <c r="V33" s="381">
         <v>20</v>
       </c>
-      <c r="W33" s="378">
+      <c r="W33" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -12768,16 +13057,16 @@
       <c r="S34" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T34" s="368" t="s">
+      <c r="T34" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U34" s="387">
+      <c r="U34" s="385">
         <v>6</v>
       </c>
-      <c r="V34" s="383">
+      <c r="V34" s="381">
         <v>20</v>
       </c>
-      <c r="W34" s="378">
+      <c r="W34" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -12826,14 +13115,14 @@
       <c r="Q35" s="306"/>
       <c r="R35" s="306"/>
       <c r="S35" s="306"/>
-      <c r="T35" s="402"/>
-      <c r="U35" s="387">
+      <c r="T35" s="400"/>
+      <c r="U35" s="385">
         <v>15</v>
       </c>
-      <c r="V35" s="383">
+      <c r="V35" s="381">
         <v>2</v>
       </c>
-      <c r="W35" s="378">
+      <c r="W35" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -12888,16 +13177,16 @@
       <c r="S36" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T36" s="368" t="s">
+      <c r="T36" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U36" s="387">
+      <c r="U36" s="385">
         <v>6</v>
       </c>
-      <c r="V36" s="383">
+      <c r="V36" s="381">
         <v>20</v>
       </c>
-      <c r="W36" s="378">
+      <c r="W36" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -12946,14 +13235,14 @@
       <c r="Q37" s="306"/>
       <c r="R37" s="306"/>
       <c r="S37" s="306"/>
-      <c r="T37" s="402"/>
-      <c r="U37" s="387">
+      <c r="T37" s="400"/>
+      <c r="U37" s="385">
         <v>15</v>
       </c>
-      <c r="V37" s="383">
+      <c r="V37" s="381">
         <v>2</v>
       </c>
-      <c r="W37" s="378">
+      <c r="W37" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -13008,16 +13297,16 @@
       <c r="S38" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T38" s="368" t="s">
+      <c r="T38" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U38" s="387">
+      <c r="U38" s="385">
         <v>6</v>
       </c>
-      <c r="V38" s="383">
+      <c r="V38" s="381">
         <v>20</v>
       </c>
-      <c r="W38" s="378">
+      <c r="W38" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -13072,16 +13361,16 @@
       <c r="S39" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T39" s="368" t="s">
+      <c r="T39" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U39" s="387">
+      <c r="U39" s="385">
         <v>6</v>
       </c>
-      <c r="V39" s="383">
+      <c r="V39" s="381">
         <v>20</v>
       </c>
-      <c r="W39" s="378">
+      <c r="W39" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -13136,16 +13425,16 @@
       <c r="S40" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T40" s="368" t="s">
+      <c r="T40" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U40" s="387">
+      <c r="U40" s="385">
         <v>6</v>
       </c>
-      <c r="V40" s="383">
+      <c r="V40" s="381">
         <v>20</v>
       </c>
-      <c r="W40" s="378">
+      <c r="W40" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -13200,16 +13489,16 @@
       <c r="S41" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="T41" s="368" t="s">
+      <c r="T41" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="U41" s="387">
+      <c r="U41" s="385">
         <v>6</v>
       </c>
-      <c r="V41" s="383">
+      <c r="V41" s="381">
         <v>20</v>
       </c>
-      <c r="W41" s="378">
+      <c r="W41" s="376">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -13258,14 +13547,14 @@
       <c r="Q42" s="191"/>
       <c r="R42" s="191"/>
       <c r="S42" s="191"/>
-      <c r="T42" s="402"/>
-      <c r="U42" s="387">
+      <c r="T42" s="400"/>
+      <c r="U42" s="385">
         <v>15</v>
       </c>
-      <c r="V42" s="383">
+      <c r="V42" s="381">
         <v>2</v>
       </c>
-      <c r="W42" s="378">
+      <c r="W42" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -13314,14 +13603,14 @@
       <c r="Q43" s="191"/>
       <c r="R43" s="191"/>
       <c r="S43" s="191"/>
-      <c r="T43" s="402"/>
-      <c r="U43" s="387">
+      <c r="T43" s="400"/>
+      <c r="U43" s="385">
         <v>15</v>
       </c>
-      <c r="V43" s="383">
+      <c r="V43" s="381">
         <v>2</v>
       </c>
-      <c r="W43" s="378">
+      <c r="W43" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -13370,14 +13659,14 @@
       <c r="Q44" s="191"/>
       <c r="R44" s="191"/>
       <c r="S44" s="191"/>
-      <c r="T44" s="402"/>
-      <c r="U44" s="387">
+      <c r="T44" s="400"/>
+      <c r="U44" s="385">
         <v>15</v>
       </c>
-      <c r="V44" s="383">
+      <c r="V44" s="381">
         <v>2</v>
       </c>
-      <c r="W44" s="378">
+      <c r="W44" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -13426,14 +13715,14 @@
       <c r="Q45" s="191"/>
       <c r="R45" s="191"/>
       <c r="S45" s="191"/>
-      <c r="T45" s="402"/>
-      <c r="U45" s="387">
+      <c r="T45" s="400"/>
+      <c r="U45" s="385">
         <v>15</v>
       </c>
-      <c r="V45" s="383">
+      <c r="V45" s="381">
         <v>2</v>
       </c>
-      <c r="W45" s="378">
+      <c r="W45" s="376">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -13482,14 +13771,14 @@
       <c r="Q46" s="319"/>
       <c r="R46" s="319"/>
       <c r="S46" s="319"/>
-      <c r="T46" s="403"/>
-      <c r="U46" s="388">
+      <c r="T46" s="401"/>
+      <c r="U46" s="386">
         <v>15</v>
       </c>
-      <c r="V46" s="389">
+      <c r="V46" s="387">
         <v>2</v>
       </c>
-      <c r="W46" s="398">
+      <c r="W46" s="396">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -13511,14 +13800,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96165BFD-25F4-48D7-9F9E-0D661328E082}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O4" sqref="O4"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="AD18" sqref="AD18"/>
+      <selection pane="topRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomLeft" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13551,53 +13840,56 @@
     <col min="27" max="27" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="423" t="s">
+    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="443" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="425" t="s">
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="445" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="425"/>
-      <c r="J2" s="426" t="s">
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="446" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="426"/>
-      <c r="L2" s="426"/>
-      <c r="M2" s="426"/>
-      <c r="N2" s="427" t="s">
+      <c r="K2" s="446"/>
+      <c r="L2" s="446"/>
+      <c r="M2" s="446"/>
+      <c r="N2" s="447" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
-      <c r="R2" s="428" t="s">
+      <c r="O2" s="447"/>
+      <c r="P2" s="447"/>
+      <c r="Q2" s="447"/>
+      <c r="R2" s="448" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="428"/>
-      <c r="T2" s="428"/>
-      <c r="U2" s="421" t="s">
+      <c r="S2" s="448"/>
+      <c r="T2" s="448"/>
+      <c r="U2" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="421"/>
-      <c r="W2" s="421"/>
-      <c r="X2" s="422"/>
-      <c r="Y2" s="418" t="s">
+      <c r="V2" s="441"/>
+      <c r="W2" s="441"/>
+      <c r="X2" s="442"/>
+      <c r="Y2" s="438" t="s">
         <v>598</v>
       </c>
-      <c r="Z2" s="419"/>
-      <c r="AA2" s="420"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="439"/>
+      <c r="AA2" s="440"/>
+      <c r="AB2" s="424" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="285" t="s">
         <v>29</v>
       </c>
@@ -13670,17 +13962,20 @@
       <c r="X3" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="391" t="s">
+      <c r="Y3" s="389" t="s">
         <v>599</v>
       </c>
-      <c r="Z3" s="371" t="s">
+      <c r="Z3" s="370" t="s">
         <v>600</v>
       </c>
-      <c r="AA3" s="372" t="s">
+      <c r="AA3" s="407" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="424" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="322">
         <v>2306201</v>
       </c>
@@ -13744,21 +14039,24 @@
       <c r="W4" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="X4" s="367" t="s">
+      <c r="X4" s="366" t="s">
         <v>127</v>
       </c>
-      <c r="Y4" s="392">
+      <c r="Y4" s="390">
         <v>11</v>
       </c>
-      <c r="Z4" s="385">
+      <c r="Z4" s="383">
         <v>6</v>
       </c>
-      <c r="AA4" s="386">
+      <c r="AA4" s="384">
         <f>(Y4*Z4)*E4</f>
         <v>396</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB4" s="425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78">
         <v>2306202</v>
       </c>
@@ -13822,21 +14120,24 @@
       <c r="W5" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X5" s="368" t="s">
+      <c r="X5" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y5" s="387">
+      <c r="Y5" s="385">
         <v>11</v>
       </c>
-      <c r="Z5" s="383">
+      <c r="Z5" s="381">
         <v>6</v>
       </c>
-      <c r="AA5" s="378">
+      <c r="AA5" s="376">
         <f t="shared" ref="AA5:AA14" si="0">(Y5*Z5)*E5</f>
         <v>396</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB5" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78">
         <v>2306204</v>
       </c>
@@ -13900,21 +14201,24 @@
       <c r="W6" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X6" s="368" t="s">
+      <c r="X6" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y6" s="387">
+      <c r="Y6" s="385">
         <v>11</v>
       </c>
-      <c r="Z6" s="383">
+      <c r="Z6" s="381">
         <v>6</v>
       </c>
-      <c r="AA6" s="378">
+      <c r="AA6" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <v>2306203</v>
       </c>
@@ -13978,21 +14282,24 @@
       <c r="W7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X7" s="368" t="s">
+      <c r="X7" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y7" s="387">
+      <c r="Y7" s="385">
         <v>11</v>
       </c>
-      <c r="Z7" s="383">
+      <c r="Z7" s="381">
         <v>6</v>
       </c>
-      <c r="AA7" s="378">
+      <c r="AA7" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB7" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78">
         <v>2304191</v>
       </c>
@@ -14054,21 +14361,24 @@
       <c r="W8" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X8" s="368" t="s">
+      <c r="X8" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y8" s="387">
+      <c r="Y8" s="385">
         <v>11</v>
       </c>
-      <c r="Z8" s="383">
+      <c r="Z8" s="381">
         <v>11</v>
       </c>
-      <c r="AA8" s="378">
+      <c r="AA8" s="376">
         <f t="shared" si="0"/>
         <v>484</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB8" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="328">
         <v>2306293</v>
       </c>
@@ -14132,21 +14442,24 @@
       <c r="W9" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="X9" s="367" t="s">
+      <c r="X9" s="366" t="s">
         <v>127</v>
       </c>
-      <c r="Y9" s="387">
+      <c r="Y9" s="385">
         <v>11</v>
       </c>
-      <c r="Z9" s="383">
+      <c r="Z9" s="381">
         <v>6</v>
       </c>
-      <c r="AA9" s="378">
+      <c r="AA9" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB9" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="328">
         <v>2306295</v>
       </c>
@@ -14210,21 +14523,24 @@
       <c r="W10" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="X10" s="367" t="s">
+      <c r="X10" s="366" t="s">
         <v>127</v>
       </c>
-      <c r="Y10" s="387">
+      <c r="Y10" s="385">
         <v>11</v>
       </c>
-      <c r="Z10" s="383">
+      <c r="Z10" s="381">
         <v>6</v>
       </c>
-      <c r="AA10" s="378">
+      <c r="AA10" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB10" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="328">
         <v>2306289</v>
       </c>
@@ -14288,21 +14604,24 @@
       <c r="W11" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="X11" s="367" t="s">
+      <c r="X11" s="366" t="s">
         <v>127</v>
       </c>
-      <c r="Y11" s="387">
+      <c r="Y11" s="385">
         <v>11</v>
       </c>
-      <c r="Z11" s="383">
+      <c r="Z11" s="381">
         <v>6</v>
       </c>
-      <c r="AA11" s="378">
+      <c r="AA11" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB11" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="328">
         <v>2306291</v>
       </c>
@@ -14366,21 +14685,24 @@
       <c r="W12" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X12" s="368" t="s">
+      <c r="X12" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="387">
+      <c r="Y12" s="385">
         <v>11</v>
       </c>
-      <c r="Z12" s="383">
+      <c r="Z12" s="381">
         <v>15</v>
       </c>
-      <c r="AA12" s="378">
+      <c r="AA12" s="376">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB12" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="328">
         <v>2306292</v>
       </c>
@@ -14444,21 +14766,24 @@
       <c r="W13" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X13" s="368" t="s">
+      <c r="X13" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y13" s="387">
+      <c r="Y13" s="385">
         <v>11</v>
       </c>
-      <c r="Z13" s="383">
+      <c r="Z13" s="381">
         <v>15</v>
       </c>
-      <c r="AA13" s="378">
+      <c r="AA13" s="376">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB13" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="329">
         <v>2306290</v>
       </c>
@@ -14522,21 +14847,24 @@
       <c r="W14" s="287" t="s">
         <v>120</v>
       </c>
-      <c r="X14" s="404" t="s">
+      <c r="X14" s="402" t="s">
         <v>127</v>
       </c>
-      <c r="Y14" s="388">
+      <c r="Y14" s="386">
         <v>11</v>
       </c>
-      <c r="Z14" s="389">
+      <c r="Z14" s="387">
         <v>6</v>
       </c>
-      <c r="AA14" s="398">
+      <c r="AA14" s="396">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F15" s="69"/>
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
@@ -14557,7 +14885,7 @@
       <c r="W15" s="70"/>
       <c r="X15" s="70"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F16" s="69"/>
       <c r="G16" s="70"/>
       <c r="H16" s="70"/>
@@ -14617,14 +14945,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB3E05A-9C4E-4B94-B37C-DF40D836A09C}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O4" sqref="O4"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="AD18" sqref="AD18"/>
+      <selection pane="topRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomLeft" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14657,53 +14985,56 @@
     <col min="27" max="27" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="423" t="s">
+    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="443" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="425" t="s">
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="445" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="425"/>
-      <c r="J2" s="426" t="s">
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="446" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="426"/>
-      <c r="L2" s="426"/>
-      <c r="M2" s="426"/>
-      <c r="N2" s="427" t="s">
+      <c r="K2" s="446"/>
+      <c r="L2" s="446"/>
+      <c r="M2" s="446"/>
+      <c r="N2" s="447" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
-      <c r="R2" s="428" t="s">
+      <c r="O2" s="447"/>
+      <c r="P2" s="447"/>
+      <c r="Q2" s="447"/>
+      <c r="R2" s="448" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="428"/>
-      <c r="T2" s="428"/>
-      <c r="U2" s="421" t="s">
+      <c r="S2" s="448"/>
+      <c r="T2" s="448"/>
+      <c r="U2" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="421"/>
-      <c r="W2" s="421"/>
-      <c r="X2" s="422"/>
-      <c r="Y2" s="418" t="s">
+      <c r="V2" s="441"/>
+      <c r="W2" s="441"/>
+      <c r="X2" s="442"/>
+      <c r="Y2" s="438" t="s">
         <v>598</v>
       </c>
-      <c r="Z2" s="419"/>
-      <c r="AA2" s="420"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="439"/>
+      <c r="AA2" s="440"/>
+      <c r="AB2" s="424" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="122" t="s">
         <v>29</v>
       </c>
@@ -14776,17 +15107,20 @@
       <c r="X3" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="395" t="s">
+      <c r="Y3" s="393" t="s">
         <v>599</v>
       </c>
-      <c r="Z3" s="396" t="s">
+      <c r="Z3" s="394" t="s">
         <v>600</v>
       </c>
-      <c r="AA3" s="397" t="s">
+      <c r="AA3" s="408" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="424" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="98">
         <v>2106081</v>
       </c>
@@ -14842,21 +15176,24 @@
       <c r="W4" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X4" s="368" t="s">
+      <c r="X4" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y4" s="392">
+      <c r="Y4" s="390">
         <v>11</v>
       </c>
-      <c r="Z4" s="385">
+      <c r="Z4" s="383">
         <v>9</v>
       </c>
-      <c r="AA4" s="386">
+      <c r="AA4" s="384">
         <f>(Y4*Z4)*E4</f>
         <v>594</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="98">
         <v>2106082</v>
       </c>
@@ -14912,21 +15249,24 @@
       <c r="W5" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X5" s="368" t="s">
+      <c r="X5" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y5" s="387">
+      <c r="Y5" s="385">
         <v>11</v>
       </c>
-      <c r="Z5" s="383">
+      <c r="Z5" s="381">
         <v>9</v>
       </c>
-      <c r="AA5" s="378">
+      <c r="AA5" s="376">
         <f t="shared" ref="AA5:AA17" si="0">(Y5*Z5)*E5</f>
         <v>594</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="98">
         <v>2106083</v>
       </c>
@@ -14982,21 +15322,24 @@
       <c r="W6" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X6" s="368" t="s">
+      <c r="X6" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y6" s="387">
+      <c r="Y6" s="385">
         <v>11</v>
       </c>
-      <c r="Z6" s="383">
+      <c r="Z6" s="381">
         <v>9</v>
       </c>
-      <c r="AA6" s="378">
+      <c r="AA6" s="376">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="98">
         <v>2106599</v>
       </c>
@@ -15052,21 +15395,24 @@
       <c r="W7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X7" s="368" t="s">
+      <c r="X7" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y7" s="387">
+      <c r="Y7" s="385">
         <v>11</v>
       </c>
-      <c r="Z7" s="383">
+      <c r="Z7" s="381">
         <v>9</v>
       </c>
-      <c r="AA7" s="378">
+      <c r="AA7" s="376">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="98">
         <v>2106600</v>
       </c>
@@ -15122,21 +15468,24 @@
       <c r="W8" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X8" s="368" t="s">
+      <c r="X8" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y8" s="387">
+      <c r="Y8" s="385">
         <v>11</v>
       </c>
-      <c r="Z8" s="383">
+      <c r="Z8" s="381">
         <v>9</v>
       </c>
-      <c r="AA8" s="378">
+      <c r="AA8" s="376">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="98">
         <v>2125500</v>
       </c>
@@ -15200,21 +15549,24 @@
       <c r="W9" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X9" s="368" t="s">
+      <c r="X9" s="367" t="s">
         <v>130</v>
       </c>
-      <c r="Y9" s="387">
+      <c r="Y9" s="385">
         <v>14</v>
       </c>
-      <c r="Z9" s="383">
+      <c r="Z9" s="381">
         <v>10</v>
       </c>
-      <c r="AA9" s="378">
+      <c r="AA9" s="376">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="98">
         <v>2106060</v>
       </c>
@@ -15276,21 +15628,24 @@
       <c r="W10" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X10" s="368" t="s">
+      <c r="X10" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y10" s="387">
+      <c r="Y10" s="385">
         <v>11</v>
       </c>
-      <c r="Z10" s="383">
+      <c r="Z10" s="381">
         <v>11</v>
       </c>
-      <c r="AA10" s="378">
+      <c r="AA10" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="98">
         <v>2106511</v>
       </c>
@@ -15346,21 +15701,24 @@
       <c r="W11" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X11" s="368" t="s">
+      <c r="X11" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y11" s="387">
+      <c r="Y11" s="385">
         <v>11</v>
       </c>
-      <c r="Z11" s="383">
+      <c r="Z11" s="381">
         <v>9</v>
       </c>
-      <c r="AA11" s="378">
+      <c r="AA11" s="376">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="98">
         <v>2104061</v>
       </c>
@@ -15430,21 +15788,24 @@
       <c r="W12" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X12" s="368" t="s">
+      <c r="X12" s="367" t="s">
         <v>289</v>
       </c>
-      <c r="Y12" s="387">
+      <c r="Y12" s="385">
         <v>12</v>
       </c>
-      <c r="Z12" s="383">
+      <c r="Z12" s="381">
         <v>15</v>
       </c>
-      <c r="AA12" s="378">
+      <c r="AA12" s="376">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="99">
         <v>2104062</v>
       </c>
@@ -15514,21 +15875,24 @@
       <c r="W13" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X13" s="368" t="s">
+      <c r="X13" s="367" t="s">
         <v>289</v>
       </c>
-      <c r="Y13" s="387">
+      <c r="Y13" s="385">
         <v>12</v>
       </c>
-      <c r="Z13" s="383">
+      <c r="Z13" s="381">
         <v>15</v>
       </c>
-      <c r="AA13" s="378">
+      <c r="AA13" s="376">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="99">
         <v>2104130</v>
       </c>
@@ -15590,21 +15954,24 @@
       <c r="W14" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X14" s="368" t="s">
+      <c r="X14" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="Y14" s="387">
+      <c r="Y14" s="385">
         <v>6</v>
       </c>
-      <c r="Z14" s="383">
+      <c r="Z14" s="381">
         <v>20</v>
       </c>
-      <c r="AA14" s="378">
+      <c r="AA14" s="376">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="99">
         <v>2106126</v>
       </c>
@@ -15666,21 +16033,24 @@
       <c r="W15" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X15" s="368" t="s">
+      <c r="X15" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y15" s="387">
+      <c r="Y15" s="385">
         <v>11</v>
       </c>
-      <c r="Z15" s="383">
+      <c r="Z15" s="381">
         <v>11</v>
       </c>
-      <c r="AA15" s="378">
+      <c r="AA15" s="376">
         <f t="shared" si="0"/>
         <v>484</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <v>2106986</v>
       </c>
@@ -15736,21 +16106,24 @@
       <c r="W16" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X16" s="368" t="s">
+      <c r="X16" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y16" s="387">
+      <c r="Y16" s="385">
         <v>11</v>
       </c>
-      <c r="Z16" s="383">
+      <c r="Z16" s="381">
         <v>9</v>
       </c>
-      <c r="AA16" s="378">
+      <c r="AA16" s="376">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB16" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="100">
         <v>2106084</v>
       </c>
@@ -15806,21 +16179,24 @@
       <c r="W17" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="X17" s="369" t="s">
+      <c r="X17" s="368" t="s">
         <v>136</v>
       </c>
-      <c r="Y17" s="388">
+      <c r="Y17" s="386">
         <v>11</v>
       </c>
-      <c r="Z17" s="389">
+      <c r="Z17" s="387">
         <v>9</v>
       </c>
-      <c r="AA17" s="398">
+      <c r="AA17" s="396">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="111"/>
       <c r="B18" s="112"/>
       <c r="C18" s="113"/>
@@ -15846,7 +16222,7 @@
       <c r="W18" s="70"/>
       <c r="X18" s="70"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="111"/>
       <c r="B19" s="112"/>
       <c r="C19" s="113"/>
@@ -15872,7 +16248,7 @@
       <c r="W19" s="70"/>
       <c r="X19" s="70"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F20" s="69"/>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
@@ -15893,7 +16269,7 @@
       <c r="W20" s="70"/>
       <c r="X20" s="70"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F21" s="69"/>
       <c r="G21" s="70"/>
       <c r="H21" s="70"/>
@@ -15914,7 +16290,7 @@
       <c r="W21" s="70"/>
       <c r="X21" s="70"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F22" s="69"/>
       <c r="G22" s="70"/>
       <c r="H22" s="70"/>
@@ -15935,7 +16311,7 @@
       <c r="W22" s="70"/>
       <c r="X22" s="70"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F23" s="69"/>
       <c r="G23" s="70"/>
       <c r="H23" s="70"/>
@@ -15956,7 +16332,7 @@
       <c r="W23" s="70"/>
       <c r="X23" s="70"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F24" s="69"/>
       <c r="G24" s="70"/>
       <c r="H24" s="70"/>
@@ -15977,7 +16353,7 @@
       <c r="W24" s="70"/>
       <c r="X24" s="70"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F25" s="69"/>
       <c r="G25" s="70"/>
       <c r="H25" s="70"/>
@@ -15998,7 +16374,7 @@
       <c r="W25" s="70"/>
       <c r="X25" s="70"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F26" s="69"/>
       <c r="G26" s="70"/>
       <c r="H26" s="70"/>
@@ -16037,14 +16413,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAD0BEF-1CDF-4008-ABA1-5B59A6D39ECC}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O4" sqref="O4"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="AD18" sqref="AD18"/>
+      <selection pane="topRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomLeft" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="AB4" sqref="AB4:AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16077,53 +16453,56 @@
     <col min="27" max="27" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="423" t="s">
+    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="443" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="425" t="s">
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="445" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="425"/>
-      <c r="J2" s="426" t="s">
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="446" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="426"/>
-      <c r="L2" s="426"/>
-      <c r="M2" s="426"/>
-      <c r="N2" s="427" t="s">
+      <c r="K2" s="446"/>
+      <c r="L2" s="446"/>
+      <c r="M2" s="446"/>
+      <c r="N2" s="447" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
-      <c r="R2" s="428" t="s">
+      <c r="O2" s="447"/>
+      <c r="P2" s="447"/>
+      <c r="Q2" s="447"/>
+      <c r="R2" s="448" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="428"/>
-      <c r="T2" s="428"/>
-      <c r="U2" s="421" t="s">
+      <c r="S2" s="448"/>
+      <c r="T2" s="448"/>
+      <c r="U2" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="421"/>
-      <c r="W2" s="421"/>
-      <c r="X2" s="422"/>
-      <c r="Y2" s="418" t="s">
+      <c r="V2" s="441"/>
+      <c r="W2" s="441"/>
+      <c r="X2" s="442"/>
+      <c r="Y2" s="438" t="s">
         <v>598</v>
       </c>
-      <c r="Z2" s="419"/>
-      <c r="AA2" s="420"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="439"/>
+      <c r="AA2" s="440"/>
+      <c r="AB2" s="424" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="285" t="s">
         <v>29</v>
       </c>
@@ -16196,17 +16575,20 @@
       <c r="X3" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="391" t="s">
+      <c r="Y3" s="389" t="s">
         <v>599</v>
       </c>
-      <c r="Z3" s="371" t="s">
+      <c r="Z3" s="370" t="s">
         <v>600</v>
       </c>
-      <c r="AA3" s="372" t="s">
+      <c r="AA3" s="407" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="424" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="322">
         <v>2006610</v>
       </c>
@@ -16268,21 +16650,24 @@
       <c r="W4" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="X4" s="367" t="s">
+      <c r="X4" s="366" t="s">
         <v>135</v>
       </c>
-      <c r="Y4" s="392">
+      <c r="Y4" s="390">
         <v>11</v>
       </c>
-      <c r="Z4" s="385">
+      <c r="Z4" s="383">
         <v>11</v>
       </c>
-      <c r="AA4" s="386">
+      <c r="AA4" s="384">
         <f>(Y4*Z4)*E4</f>
         <v>726</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="78">
         <v>2006498</v>
       </c>
@@ -16344,21 +16729,24 @@
       <c r="W5" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X5" s="368" t="s">
+      <c r="X5" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y5" s="387">
+      <c r="Y5" s="385">
         <v>11</v>
       </c>
-      <c r="Z5" s="383">
+      <c r="Z5" s="381">
         <v>11</v>
       </c>
-      <c r="AA5" s="378">
+      <c r="AA5" s="376">
         <f t="shared" ref="AA5:AA27" si="0">(Y5*Z5)*E5</f>
         <v>726</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <v>2006488</v>
       </c>
@@ -16420,21 +16808,24 @@
       <c r="W6" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X6" s="368" t="s">
+      <c r="X6" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y6" s="387">
+      <c r="Y6" s="385">
         <v>11</v>
       </c>
-      <c r="Z6" s="383">
+      <c r="Z6" s="381">
         <v>11</v>
       </c>
-      <c r="AA6" s="378">
+      <c r="AA6" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <v>2006927</v>
       </c>
@@ -16490,21 +16881,24 @@
       <c r="W7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X7" s="368" t="s">
+      <c r="X7" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y7" s="387">
+      <c r="Y7" s="385">
         <v>11</v>
       </c>
-      <c r="Z7" s="383">
+      <c r="Z7" s="381">
         <v>6</v>
       </c>
-      <c r="AA7" s="378">
+      <c r="AA7" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <v>2006223</v>
       </c>
@@ -16560,21 +16954,24 @@
       <c r="W8" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X8" s="368" t="s">
+      <c r="X8" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y8" s="387">
+      <c r="Y8" s="385">
         <v>11</v>
       </c>
-      <c r="Z8" s="383">
+      <c r="Z8" s="381">
         <v>6</v>
       </c>
-      <c r="AA8" s="378">
+      <c r="AA8" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <v>2006559</v>
       </c>
@@ -16630,21 +17027,24 @@
       <c r="W9" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X9" s="368" t="s">
+      <c r="X9" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y9" s="387">
+      <c r="Y9" s="385">
         <v>11</v>
       </c>
-      <c r="Z9" s="383">
+      <c r="Z9" s="381">
         <v>6</v>
       </c>
-      <c r="AA9" s="378">
+      <c r="AA9" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <v>2006542</v>
       </c>
@@ -16706,21 +17106,24 @@
       <c r="W10" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X10" s="368" t="s">
+      <c r="X10" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y10" s="387">
+      <c r="Y10" s="385">
         <v>18</v>
       </c>
-      <c r="Z10" s="383">
+      <c r="Z10" s="381">
         <v>10</v>
       </c>
-      <c r="AA10" s="378">
+      <c r="AA10" s="376">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <v>2006532</v>
       </c>
@@ -16782,21 +17185,24 @@
       <c r="W11" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X11" s="368" t="s">
+      <c r="X11" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y11" s="387">
+      <c r="Y11" s="385">
         <v>18</v>
       </c>
-      <c r="Z11" s="383">
+      <c r="Z11" s="381">
         <v>10</v>
       </c>
-      <c r="AA11" s="378">
+      <c r="AA11" s="376">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <v>2006690</v>
       </c>
@@ -16858,21 +17264,24 @@
       <c r="W12" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X12" s="368" t="s">
+      <c r="X12" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y12" s="387">
+      <c r="Y12" s="385">
         <v>18</v>
       </c>
-      <c r="Z12" s="383">
+      <c r="Z12" s="381">
         <v>10</v>
       </c>
-      <c r="AA12" s="378">
+      <c r="AA12" s="376">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <v>2006691</v>
       </c>
@@ -16934,21 +17343,24 @@
       <c r="W13" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X13" s="368" t="s">
+      <c r="X13" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y13" s="387">
+      <c r="Y13" s="385">
         <v>18</v>
       </c>
-      <c r="Z13" s="383">
+      <c r="Z13" s="381">
         <v>10</v>
       </c>
-      <c r="AA13" s="378">
+      <c r="AA13" s="376">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <v>2006084</v>
       </c>
@@ -17010,21 +17422,24 @@
       <c r="W14" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X14" s="368" t="s">
+      <c r="X14" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y14" s="387">
+      <c r="Y14" s="385">
         <v>11</v>
       </c>
-      <c r="Z14" s="383">
+      <c r="Z14" s="381">
         <v>11</v>
       </c>
-      <c r="AA14" s="378">
+      <c r="AA14" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <v>2006083</v>
       </c>
@@ -17080,21 +17495,24 @@
       <c r="W15" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X15" s="368" t="s">
+      <c r="X15" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y15" s="387">
+      <c r="Y15" s="385">
         <v>11</v>
       </c>
-      <c r="Z15" s="383">
+      <c r="Z15" s="381">
         <v>6</v>
       </c>
-      <c r="AA15" s="378">
+      <c r="AA15" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <v>2006437</v>
       </c>
@@ -17150,21 +17568,24 @@
       <c r="W16" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X16" s="368" t="s">
+      <c r="X16" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y16" s="387">
+      <c r="Y16" s="385">
         <v>11</v>
       </c>
-      <c r="Z16" s="383">
+      <c r="Z16" s="381">
         <v>6</v>
       </c>
-      <c r="AA16" s="378">
+      <c r="AA16" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <v>2006534</v>
       </c>
@@ -17220,21 +17641,24 @@
       <c r="W17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X17" s="368" t="s">
+      <c r="X17" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y17" s="387">
+      <c r="Y17" s="385">
         <v>11</v>
       </c>
-      <c r="Z17" s="383">
+      <c r="Z17" s="381">
         <v>6</v>
       </c>
-      <c r="AA17" s="378">
+      <c r="AA17" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <v>2006538</v>
       </c>
@@ -17298,21 +17722,24 @@
       <c r="W18" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X18" s="368" t="s">
+      <c r="X18" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y18" s="387">
+      <c r="Y18" s="385">
         <v>11</v>
       </c>
-      <c r="Z18" s="383">
+      <c r="Z18" s="381">
         <v>11</v>
       </c>
-      <c r="AA18" s="378">
+      <c r="AA18" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <v>2006062</v>
       </c>
@@ -17368,21 +17795,24 @@
       <c r="W19" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X19" s="368" t="s">
+      <c r="X19" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y19" s="387">
+      <c r="Y19" s="385">
         <v>11</v>
       </c>
-      <c r="Z19" s="383">
+      <c r="Z19" s="381">
         <v>6</v>
       </c>
-      <c r="AA19" s="378">
+      <c r="AA19" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <v>2006065</v>
       </c>
@@ -17438,21 +17868,24 @@
       <c r="W20" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X20" s="368" t="s">
+      <c r="X20" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y20" s="387">
+      <c r="Y20" s="385">
         <v>11</v>
       </c>
-      <c r="Z20" s="383">
+      <c r="Z20" s="381">
         <v>6</v>
       </c>
-      <c r="AA20" s="378">
+      <c r="AA20" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <v>2006061</v>
       </c>
@@ -17508,21 +17941,24 @@
       <c r="W21" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X21" s="368" t="s">
+      <c r="X21" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y21" s="387">
+      <c r="Y21" s="385">
         <v>11</v>
       </c>
-      <c r="Z21" s="383">
+      <c r="Z21" s="381">
         <v>6</v>
       </c>
-      <c r="AA21" s="378">
+      <c r="AA21" s="376">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <v>2006666</v>
       </c>
@@ -17584,21 +18020,24 @@
       <c r="W22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X22" s="368" t="s">
+      <c r="X22" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y22" s="387">
+      <c r="Y22" s="385">
         <v>11</v>
       </c>
-      <c r="Z22" s="383">
+      <c r="Z22" s="381">
         <v>11</v>
       </c>
-      <c r="AA22" s="378">
+      <c r="AA22" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <v>2006664</v>
       </c>
@@ -17660,21 +18099,24 @@
       <c r="W23" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X23" s="368" t="s">
+      <c r="X23" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y23" s="387">
+      <c r="Y23" s="385">
         <v>11</v>
       </c>
-      <c r="Z23" s="383">
+      <c r="Z23" s="381">
         <v>11</v>
       </c>
-      <c r="AA23" s="378">
+      <c r="AA23" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <v>2006675</v>
       </c>
@@ -17736,21 +18178,24 @@
       <c r="W24" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X24" s="368" t="s">
+      <c r="X24" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y24" s="387">
+      <c r="Y24" s="385">
         <v>11</v>
       </c>
-      <c r="Z24" s="383">
+      <c r="Z24" s="381">
         <v>11</v>
       </c>
-      <c r="AA24" s="378">
+      <c r="AA24" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <v>2006671</v>
       </c>
@@ -17812,21 +18257,24 @@
       <c r="W25" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X25" s="368" t="s">
+      <c r="X25" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y25" s="387">
+      <c r="Y25" s="385">
         <v>11</v>
       </c>
-      <c r="Z25" s="383">
+      <c r="Z25" s="381">
         <v>11</v>
       </c>
-      <c r="AA25" s="378">
+      <c r="AA25" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <v>2006670</v>
       </c>
@@ -17888,21 +18336,24 @@
       <c r="W26" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X26" s="368" t="s">
+      <c r="X26" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y26" s="387">
+      <c r="Y26" s="385">
         <v>11</v>
       </c>
-      <c r="Z26" s="383">
+      <c r="Z26" s="381">
         <v>11</v>
       </c>
-      <c r="AA26" s="378">
+      <c r="AA26" s="376">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB26" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="79">
         <v>2006210</v>
       </c>
@@ -17964,18 +18415,21 @@
       <c r="W27" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="X27" s="369" t="s">
+      <c r="X27" s="368" t="s">
         <v>166</v>
       </c>
-      <c r="Y27" s="388">
+      <c r="Y27" s="386">
         <v>11</v>
       </c>
-      <c r="Z27" s="389">
+      <c r="Z27" s="387">
         <v>15</v>
       </c>
-      <c r="AA27" s="398">
+      <c r="AA27" s="396">
         <f t="shared" si="0"/>
         <v>990</v>
+      </c>
+      <c r="AB27" s="426">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17996,14 +18450,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F425824-CAAC-4639-951C-B8271F6B15C5}">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O4" sqref="O4"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection activeCell="AD18" sqref="AD18"/>
+      <selection pane="topRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomLeft" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18035,53 +18489,56 @@
     <col min="27" max="27" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="423" t="s">
+    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="443" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="425" t="s">
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="445" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="425"/>
-      <c r="J2" s="426" t="s">
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="446" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="426"/>
-      <c r="L2" s="426"/>
-      <c r="M2" s="426"/>
-      <c r="N2" s="427" t="s">
+      <c r="K2" s="446"/>
+      <c r="L2" s="446"/>
+      <c r="M2" s="446"/>
+      <c r="N2" s="447" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
-      <c r="R2" s="428" t="s">
+      <c r="O2" s="447"/>
+      <c r="P2" s="447"/>
+      <c r="Q2" s="447"/>
+      <c r="R2" s="448" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="428"/>
-      <c r="T2" s="428"/>
-      <c r="U2" s="421" t="s">
+      <c r="S2" s="448"/>
+      <c r="T2" s="448"/>
+      <c r="U2" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="421"/>
-      <c r="W2" s="421"/>
-      <c r="X2" s="422"/>
-      <c r="Y2" s="418" t="s">
+      <c r="V2" s="441"/>
+      <c r="W2" s="441"/>
+      <c r="X2" s="442"/>
+      <c r="Y2" s="438" t="s">
         <v>598</v>
       </c>
-      <c r="Z2" s="419"/>
-      <c r="AA2" s="420"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="439"/>
+      <c r="AA2" s="440"/>
+      <c r="AB2" s="424" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="122" t="s">
         <v>29</v>
       </c>
@@ -18154,17 +18611,20 @@
       <c r="X3" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="395" t="s">
+      <c r="Y3" s="393" t="s">
         <v>599</v>
       </c>
-      <c r="Z3" s="396" t="s">
+      <c r="Z3" s="394" t="s">
         <v>600</v>
       </c>
-      <c r="AA3" s="397" t="s">
+      <c r="AA3" s="408" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="424" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="130">
         <v>2206289</v>
       </c>
@@ -18220,21 +18680,24 @@
       <c r="W4" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X4" s="368" t="s">
+      <c r="X4" s="367" t="s">
         <v>136</v>
       </c>
-      <c r="Y4" s="392">
+      <c r="Y4" s="390">
         <v>11</v>
       </c>
-      <c r="Z4" s="385">
+      <c r="Z4" s="383">
         <v>9</v>
       </c>
-      <c r="AA4" s="386">
+      <c r="AA4" s="384">
         <f>(Y4*Z4)*E4</f>
         <v>594</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="137" t="s">
         <v>329</v>
       </c>
@@ -18296,21 +18759,24 @@
       <c r="W5" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X5" s="368" t="s">
+      <c r="X5" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y5" s="387">
+      <c r="Y5" s="385">
         <v>18</v>
       </c>
-      <c r="Z5" s="383">
+      <c r="Z5" s="381">
         <v>10</v>
       </c>
-      <c r="AA5" s="378">
+      <c r="AA5" s="376">
         <f t="shared" ref="AA5:AA6" si="0">(Y5*Z5)*E5</f>
         <v>1080</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB5" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="132" t="s">
         <v>330</v>
       </c>
@@ -18372,18 +18838,21 @@
       <c r="W6" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="X6" s="369" t="s">
+      <c r="X6" s="368" t="s">
         <v>121</v>
       </c>
-      <c r="Y6" s="388">
+      <c r="Y6" s="386">
         <v>18</v>
       </c>
-      <c r="Z6" s="389">
+      <c r="Z6" s="387">
         <v>10</v>
       </c>
-      <c r="AA6" s="398">
+      <c r="AA6" s="396">
         <f t="shared" si="0"/>
         <v>1080</v>
+      </c>
+      <c r="AB6" s="427">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18403,14 +18872,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46304811-3A5D-4BF8-9792-FEC9A64659E2}">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O4" sqref="O4"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="AD18" sqref="AD18"/>
+      <selection pane="topRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomLeft" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18441,55 +18910,59 @@
     <col min="25" max="25" width="17.42578125" customWidth="1"/>
     <col min="26" max="26" width="21.85546875" customWidth="1"/>
     <col min="27" max="27" width="21.7109375" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" style="428"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="430" t="s">
+    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="431"/>
-      <c r="C2" s="431"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="431"/>
-      <c r="F2" s="412" t="s">
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="432" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="412"/>
-      <c r="H2" s="412"/>
-      <c r="I2" s="412"/>
-      <c r="J2" s="413" t="s">
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="432"/>
+      <c r="J2" s="433" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="413"/>
-      <c r="N2" s="417" t="s">
+      <c r="K2" s="433"/>
+      <c r="L2" s="433"/>
+      <c r="M2" s="433"/>
+      <c r="N2" s="437" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="417"/>
-      <c r="P2" s="417"/>
-      <c r="Q2" s="417"/>
-      <c r="R2" s="414" t="s">
+      <c r="O2" s="437"/>
+      <c r="P2" s="437"/>
+      <c r="Q2" s="437"/>
+      <c r="R2" s="434" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="414"/>
-      <c r="T2" s="414"/>
-      <c r="U2" s="415" t="s">
+      <c r="S2" s="434"/>
+      <c r="T2" s="434"/>
+      <c r="U2" s="435" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="415"/>
-      <c r="W2" s="415"/>
-      <c r="X2" s="429"/>
-      <c r="Y2" s="418" t="s">
+      <c r="V2" s="435"/>
+      <c r="W2" s="435"/>
+      <c r="X2" s="449"/>
+      <c r="Y2" s="438" t="s">
         <v>598</v>
       </c>
-      <c r="Z2" s="419"/>
-      <c r="AA2" s="420"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="439"/>
+      <c r="AA2" s="440"/>
+      <c r="AB2" s="425" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>29</v>
       </c>
@@ -18562,17 +19035,20 @@
       <c r="X3" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="395" t="s">
+      <c r="Y3" s="393" t="s">
         <v>599</v>
       </c>
-      <c r="Z3" s="396" t="s">
+      <c r="Z3" s="394" t="s">
         <v>600</v>
       </c>
-      <c r="AA3" s="397" t="s">
+      <c r="AA3" s="408" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="426" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="198">
         <v>1204970</v>
       </c>
@@ -18634,21 +19110,24 @@
       <c r="W4" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="X4" s="405" t="s">
+      <c r="X4" s="403" t="s">
         <v>121</v>
       </c>
-      <c r="Y4" s="392">
+      <c r="Y4" s="390">
         <v>18</v>
       </c>
-      <c r="Z4" s="385">
+      <c r="Z4" s="383">
         <v>10</v>
       </c>
-      <c r="AA4" s="386">
+      <c r="AA4" s="409">
         <f>(Y4*Z4)*E4</f>
         <v>720</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="137" t="s">
         <v>340</v>
       </c>
@@ -18710,21 +19189,24 @@
       <c r="W5" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X5" s="368" t="s">
+      <c r="X5" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y5" s="387">
+      <c r="Y5" s="385">
         <v>18</v>
       </c>
-      <c r="Z5" s="383">
+      <c r="Z5" s="381">
         <v>10</v>
       </c>
-      <c r="AA5" s="378">
+      <c r="AA5" s="411">
         <f t="shared" ref="AA5:AA36" si="0">(Y5*Z5)*E5</f>
         <v>720</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="144" t="s">
         <v>342</v>
       </c>
@@ -18786,21 +19268,24 @@
       <c r="W6" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X6" s="368" t="s">
+      <c r="X6" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y6" s="387">
+      <c r="Y6" s="385">
         <v>18</v>
       </c>
-      <c r="Z6" s="383">
+      <c r="Z6" s="381">
         <v>10</v>
       </c>
-      <c r="AA6" s="378">
+      <c r="AA6" s="411">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="211">
         <v>1204918</v>
       </c>
@@ -18856,21 +19341,24 @@
       <c r="W7" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="X7" s="402" t="s">
+      <c r="X7" s="400" t="s">
         <v>498</v>
       </c>
-      <c r="Y7" s="387">
+      <c r="Y7" s="385">
         <v>24</v>
       </c>
-      <c r="Z7" s="383">
+      <c r="Z7" s="381">
         <v>10</v>
       </c>
-      <c r="AA7" s="378">
+      <c r="AA7" s="411">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="212">
         <v>1206944</v>
       </c>
@@ -18904,12 +19392,15 @@
       <c r="U8" s="191"/>
       <c r="V8" s="191"/>
       <c r="W8" s="191"/>
-      <c r="X8" s="402"/>
-      <c r="Y8" s="387"/>
-      <c r="Z8" s="383"/>
-      <c r="AA8" s="378"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X8" s="400"/>
+      <c r="Y8" s="385"/>
+      <c r="Z8" s="381"/>
+      <c r="AA8" s="411"/>
+      <c r="AB8" s="426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="213">
         <v>1206943</v>
       </c>
@@ -18943,12 +19434,15 @@
       <c r="U9" s="191"/>
       <c r="V9" s="191"/>
       <c r="W9" s="191"/>
-      <c r="X9" s="402"/>
-      <c r="Y9" s="387"/>
-      <c r="Z9" s="383"/>
-      <c r="AA9" s="378"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X9" s="400"/>
+      <c r="Y9" s="385"/>
+      <c r="Z9" s="381"/>
+      <c r="AA9" s="411"/>
+      <c r="AB9" s="426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="98">
         <v>1204925</v>
       </c>
@@ -19004,21 +19498,24 @@
       <c r="W10" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="X10" s="406" t="s">
+      <c r="X10" s="404" t="s">
         <v>121</v>
       </c>
-      <c r="Y10" s="387">
+      <c r="Y10" s="385">
         <v>18</v>
       </c>
-      <c r="Z10" s="383">
+      <c r="Z10" s="381">
         <v>10</v>
       </c>
-      <c r="AA10" s="378">
+      <c r="AA10" s="411">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="98">
         <v>1201933</v>
       </c>
@@ -19068,19 +19565,22 @@
       <c r="U11" s="191"/>
       <c r="V11" s="191"/>
       <c r="W11" s="191"/>
-      <c r="X11" s="402"/>
-      <c r="Y11" s="387">
+      <c r="X11" s="400"/>
+      <c r="Y11" s="385">
         <v>24</v>
       </c>
-      <c r="Z11" s="383">
+      <c r="Z11" s="381">
         <v>6</v>
       </c>
-      <c r="AA11" s="378">
+      <c r="AA11" s="411">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11" s="426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="214">
         <v>1201952</v>
       </c>
@@ -19136,21 +19636,24 @@
       <c r="W12" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X12" s="368" t="s">
+      <c r="X12" s="367" t="s">
         <v>127</v>
       </c>
-      <c r="Y12" s="387">
+      <c r="Y12" s="385">
         <v>11</v>
       </c>
-      <c r="Z12" s="383">
+      <c r="Z12" s="381">
         <v>6</v>
       </c>
-      <c r="AA12" s="378">
+      <c r="AA12" s="411">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="214">
         <v>1206906</v>
       </c>
@@ -19212,21 +19715,24 @@
       <c r="W13" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X13" s="368" t="s">
+      <c r="X13" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y13" s="387">
+      <c r="Y13" s="385">
         <v>11</v>
       </c>
-      <c r="Z13" s="383">
+      <c r="Z13" s="381">
         <v>15</v>
       </c>
-      <c r="AA13" s="378">
+      <c r="AA13" s="411">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="215">
         <v>1204929</v>
       </c>
@@ -19282,21 +19788,24 @@
       <c r="W14" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="X14" s="402" t="s">
+      <c r="X14" s="400" t="s">
         <v>498</v>
       </c>
-      <c r="Y14" s="387">
+      <c r="Y14" s="385">
         <v>24</v>
       </c>
-      <c r="Z14" s="383">
+      <c r="Z14" s="381">
         <v>10</v>
       </c>
-      <c r="AA14" s="378">
+      <c r="AA14" s="411">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="215">
         <v>1204940</v>
       </c>
@@ -19352,21 +19861,24 @@
       <c r="W15" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="X15" s="402" t="s">
+      <c r="X15" s="400" t="s">
         <v>498</v>
       </c>
-      <c r="Y15" s="387">
+      <c r="Y15" s="385">
         <v>24</v>
       </c>
-      <c r="Z15" s="383">
+      <c r="Z15" s="381">
         <v>10</v>
       </c>
-      <c r="AA15" s="378">
+      <c r="AA15" s="411">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15" s="426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="215">
         <v>1204939</v>
       </c>
@@ -19422,21 +19934,24 @@
       <c r="W16" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="X16" s="402" t="s">
+      <c r="X16" s="400" t="s">
         <v>498</v>
       </c>
-      <c r="Y16" s="387">
+      <c r="Y16" s="385">
         <v>24</v>
       </c>
-      <c r="Z16" s="383">
+      <c r="Z16" s="381">
         <v>10</v>
       </c>
-      <c r="AA16" s="378">
+      <c r="AA16" s="411">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="215">
         <v>1201942</v>
       </c>
@@ -19486,19 +20001,22 @@
       <c r="U17" s="191"/>
       <c r="V17" s="191"/>
       <c r="W17" s="191"/>
-      <c r="X17" s="402"/>
-      <c r="Y17" s="387">
+      <c r="X17" s="400"/>
+      <c r="Y17" s="385">
         <v>24</v>
       </c>
-      <c r="Z17" s="383">
+      <c r="Z17" s="381">
         <v>6</v>
       </c>
-      <c r="AA17" s="378">
+      <c r="AA17" s="411">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="215">
         <v>1204971</v>
       </c>
@@ -19560,21 +20078,24 @@
       <c r="W18" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X18" s="368" t="s">
+      <c r="X18" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y18" s="387">
+      <c r="Y18" s="385">
         <v>18</v>
       </c>
-      <c r="Z18" s="383">
+      <c r="Z18" s="381">
         <v>10</v>
       </c>
-      <c r="AA18" s="378">
+      <c r="AA18" s="411">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="211">
         <v>1204961</v>
       </c>
@@ -19636,21 +20157,24 @@
       <c r="W19" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X19" s="368" t="s">
+      <c r="X19" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="Y19" s="387">
+      <c r="Y19" s="385">
         <v>18</v>
       </c>
-      <c r="Z19" s="383">
+      <c r="Z19" s="381">
         <v>10</v>
       </c>
-      <c r="AA19" s="378">
+      <c r="AA19" s="411">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="211">
         <v>1204935</v>
       </c>
@@ -19706,21 +20230,24 @@
       <c r="W20" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X20" s="368" t="s">
+      <c r="X20" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y20" s="387">
+      <c r="Y20" s="385">
         <v>11</v>
       </c>
-      <c r="Z20" s="383">
+      <c r="Z20" s="381">
         <v>15</v>
       </c>
-      <c r="AA20" s="378">
+      <c r="AA20" s="411">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="211">
         <v>1204931</v>
       </c>
@@ -19776,21 +20303,24 @@
       <c r="W21" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X21" s="368" t="s">
+      <c r="X21" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y21" s="387">
+      <c r="Y21" s="385">
         <v>11</v>
       </c>
-      <c r="Z21" s="383">
+      <c r="Z21" s="381">
         <v>15</v>
       </c>
-      <c r="AA21" s="378">
+      <c r="AA21" s="411">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="211">
         <v>1201932</v>
       </c>
@@ -19840,19 +20370,22 @@
       <c r="U22" s="191"/>
       <c r="V22" s="191"/>
       <c r="W22" s="191"/>
-      <c r="X22" s="402"/>
-      <c r="Y22" s="387">
+      <c r="X22" s="400"/>
+      <c r="Y22" s="385">
         <v>24</v>
       </c>
-      <c r="Z22" s="383">
+      <c r="Z22" s="381">
         <v>6</v>
       </c>
-      <c r="AA22" s="378">
+      <c r="AA22" s="411">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="130">
         <v>1204963</v>
       </c>
@@ -19914,21 +20447,24 @@
       <c r="W23" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X23" s="368" t="s">
+      <c r="X23" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y23" s="387">
+      <c r="Y23" s="385">
         <v>11</v>
       </c>
-      <c r="Z23" s="383">
+      <c r="Z23" s="381">
         <v>15</v>
       </c>
-      <c r="AA23" s="378">
+      <c r="AA23" s="411">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="216" t="s">
         <v>447</v>
       </c>
@@ -19980,21 +20516,24 @@
       <c r="W24" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X24" s="368" t="s">
+      <c r="X24" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y24" s="387">
+      <c r="Y24" s="385">
         <v>11</v>
       </c>
-      <c r="Z24" s="383">
+      <c r="Z24" s="381">
         <v>11</v>
       </c>
-      <c r="AA24" s="378">
+      <c r="AA24" s="411">
         <f t="shared" si="0"/>
         <v>484</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="216" t="s">
         <v>450</v>
       </c>
@@ -20044,19 +20583,22 @@
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
       <c r="W25" s="191"/>
-      <c r="X25" s="402"/>
-      <c r="Y25" s="387">
+      <c r="X25" s="400"/>
+      <c r="Y25" s="385">
         <v>11</v>
       </c>
-      <c r="Z25" s="383">
+      <c r="Z25" s="381">
         <v>6</v>
       </c>
-      <c r="AA25" s="378">
+      <c r="AA25" s="411">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="217" t="s">
         <v>453</v>
       </c>
@@ -20090,12 +20632,15 @@
       <c r="U26" s="191"/>
       <c r="V26" s="191"/>
       <c r="W26" s="191"/>
-      <c r="X26" s="402"/>
-      <c r="Y26" s="387"/>
-      <c r="Z26" s="383"/>
-      <c r="AA26" s="378"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X26" s="400"/>
+      <c r="Y26" s="385"/>
+      <c r="Z26" s="381"/>
+      <c r="AA26" s="411"/>
+      <c r="AB26" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="217" t="s">
         <v>454</v>
       </c>
@@ -20129,12 +20674,15 @@
       <c r="U27" s="191"/>
       <c r="V27" s="191"/>
       <c r="W27" s="191"/>
-      <c r="X27" s="402"/>
-      <c r="Y27" s="387"/>
-      <c r="Z27" s="383"/>
-      <c r="AA27" s="378"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X27" s="400"/>
+      <c r="Y27" s="385"/>
+      <c r="Z27" s="381"/>
+      <c r="AA27" s="411"/>
+      <c r="AB27" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="218" t="s">
         <v>452</v>
       </c>
@@ -20196,21 +20744,24 @@
       <c r="W28" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X28" s="368" t="s">
+      <c r="X28" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y28" s="387">
+      <c r="Y28" s="385">
         <v>11</v>
       </c>
-      <c r="Z28" s="383">
+      <c r="Z28" s="381">
         <v>11</v>
       </c>
-      <c r="AA28" s="378">
+      <c r="AA28" s="411">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="212">
         <v>1206903</v>
       </c>
@@ -20244,12 +20795,15 @@
       <c r="U29" s="191"/>
       <c r="V29" s="191"/>
       <c r="W29" s="191"/>
-      <c r="X29" s="402"/>
-      <c r="Y29" s="387"/>
-      <c r="Z29" s="383"/>
-      <c r="AA29" s="378"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X29" s="400"/>
+      <c r="Y29" s="385"/>
+      <c r="Z29" s="381"/>
+      <c r="AA29" s="411"/>
+      <c r="AB29" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="211">
         <v>1206902</v>
       </c>
@@ -20311,21 +20865,24 @@
       <c r="W30" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X30" s="368" t="s">
+      <c r="X30" s="367" t="s">
         <v>135</v>
       </c>
-      <c r="Y30" s="387">
+      <c r="Y30" s="385">
         <v>11</v>
       </c>
-      <c r="Z30" s="383">
+      <c r="Z30" s="381">
         <v>11</v>
       </c>
-      <c r="AA30" s="378">
+      <c r="AA30" s="411">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="212">
         <v>1206966</v>
       </c>
@@ -20357,12 +20914,15 @@
       <c r="U31" s="191"/>
       <c r="V31" s="191"/>
       <c r="W31" s="191"/>
-      <c r="X31" s="402"/>
-      <c r="Y31" s="387"/>
-      <c r="Z31" s="383"/>
-      <c r="AA31" s="378"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X31" s="400"/>
+      <c r="Y31" s="385"/>
+      <c r="Z31" s="381"/>
+      <c r="AA31" s="411"/>
+      <c r="AB31" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="211">
         <v>1204919</v>
       </c>
@@ -20414,21 +20974,24 @@
       <c r="W32" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="X32" s="402" t="s">
+      <c r="X32" s="400" t="s">
         <v>498</v>
       </c>
-      <c r="Y32" s="387">
+      <c r="Y32" s="385">
         <v>24</v>
       </c>
-      <c r="Z32" s="383">
+      <c r="Z32" s="381">
         <v>10</v>
       </c>
-      <c r="AA32" s="378">
+      <c r="AA32" s="411">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="211">
         <v>1201934</v>
       </c>
@@ -20476,19 +21039,22 @@
       <c r="U33" s="191"/>
       <c r="V33" s="191"/>
       <c r="W33" s="191"/>
-      <c r="X33" s="402"/>
-      <c r="Y33" s="387">
+      <c r="X33" s="400"/>
+      <c r="Y33" s="385">
         <v>24</v>
       </c>
-      <c r="Z33" s="383">
+      <c r="Z33" s="381">
         <v>6</v>
       </c>
-      <c r="AA33" s="378">
+      <c r="AA33" s="411">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB33" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="219" t="s">
         <v>439</v>
       </c>
@@ -20550,21 +21116,24 @@
       <c r="W34" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="X34" s="368" t="s">
+      <c r="X34" s="367" t="s">
         <v>166</v>
       </c>
-      <c r="Y34" s="387">
+      <c r="Y34" s="385">
         <v>11</v>
       </c>
-      <c r="Z34" s="383">
+      <c r="Z34" s="381">
         <v>15</v>
       </c>
-      <c r="AA34" s="378">
+      <c r="AA34" s="411">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB34" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="219" t="s">
         <v>441</v>
       </c>
@@ -20614,19 +21183,22 @@
       <c r="U35" s="191"/>
       <c r="V35" s="191"/>
       <c r="W35" s="191"/>
-      <c r="X35" s="402"/>
-      <c r="Y35" s="387">
+      <c r="X35" s="400"/>
+      <c r="Y35" s="385">
         <v>15</v>
       </c>
-      <c r="Z35" s="383">
+      <c r="Z35" s="381">
         <v>2</v>
       </c>
-      <c r="AA35" s="378">
+      <c r="AA35" s="411">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB35" s="426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="220" t="s">
         <v>444</v>
       </c>
@@ -20682,21 +21254,24 @@
       <c r="W36" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="X36" s="369" t="s">
+      <c r="X36" s="368" t="s">
         <v>123</v>
       </c>
-      <c r="Y36" s="388">
+      <c r="Y36" s="386">
         <v>6</v>
       </c>
-      <c r="Z36" s="389">
+      <c r="Z36" s="387">
         <v>20</v>
       </c>
-      <c r="AA36" s="398">
+      <c r="AA36" s="410">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB36" s="427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="141"/>
       <c r="B37" s="141"/>
       <c r="C37" s="141"/>
